--- a/Code/Results/Cases/Case_1_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_line/pl_mw.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.063493312725114</v>
+        <v>1.063493312725342</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1572308296164096</v>
+        <v>0.1572308296166511</v>
       </c>
       <c r="E2">
-        <v>0.397350671545226</v>
+        <v>0.3973506715452118</v>
       </c>
       <c r="F2">
         <v>4.81652283165505</v>
       </c>
       <c r="G2">
-        <v>4.095091844138608</v>
+        <v>4.095091844138636</v>
       </c>
       <c r="H2">
-        <v>1.719387791611226</v>
+        <v>1.719387791611254</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9214296112250224</v>
+        <v>0.9214296112250508</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -459,16 +459,16 @@
         <v>0.1286018863997072</v>
       </c>
       <c r="E3">
-        <v>0.3534893836580508</v>
+        <v>0.3534893836580935</v>
       </c>
       <c r="F3">
-        <v>4.035993014686255</v>
+        <v>4.035993014686227</v>
       </c>
       <c r="G3">
         <v>3.426467133789288</v>
       </c>
       <c r="H3">
-        <v>1.514010566008409</v>
+        <v>1.514010566008395</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.867156500153555</v>
+        <v>5.867156500153584</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -494,7 +494,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1125065523933841</v>
+        <v>0.1125065523932705</v>
       </c>
       <c r="E4">
         <v>0.3262846356407962</v>
@@ -503,10 +503,10 @@
         <v>3.586628122286186</v>
       </c>
       <c r="G4">
-        <v>3.042124643692048</v>
+        <v>3.04212464369202</v>
       </c>
       <c r="H4">
-        <v>1.391247775756554</v>
+        <v>1.391247775756597</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.799947932854792</v>
+        <v>0.7999479328548773</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1062480723550081</v>
+        <v>0.1062480723549157</v>
       </c>
       <c r="E5">
-        <v>0.3151421910007528</v>
+        <v>0.315142191000767</v>
       </c>
       <c r="F5">
-        <v>3.409600510874242</v>
+        <v>3.409600510874213</v>
       </c>
       <c r="G5">
-        <v>2.890840354356953</v>
+        <v>2.890840354356925</v>
       </c>
       <c r="H5">
         <v>1.341937501140606</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.056980143970918</v>
+        <v>5.056980143970975</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -573,16 +573,16 @@
         <v>0.1052251652239207</v>
       </c>
       <c r="E6">
-        <v>0.3132889229434568</v>
+        <v>0.3132889229434923</v>
       </c>
       <c r="F6">
         <v>3.380536816106314</v>
       </c>
       <c r="G6">
-        <v>2.866010234906582</v>
+        <v>2.866010234906597</v>
       </c>
       <c r="H6">
-        <v>1.333789590212504</v>
+        <v>1.333789590212533</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.018508779842136</v>
+        <v>5.018508779842151</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8345356991382573</v>
+        <v>0.8345356991382289</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1124210165801145</v>
+        <v>0.1124210165800008</v>
       </c>
       <c r="E7">
-        <v>0.3261345776524465</v>
+        <v>0.326134577652482</v>
       </c>
       <c r="F7">
-        <v>3.584217675071756</v>
+        <v>3.584217675071784</v>
       </c>
       <c r="G7">
-        <v>3.040064227222246</v>
+        <v>3.040064227222217</v>
       </c>
       <c r="H7">
-        <v>1.390580008274952</v>
+        <v>1.390580008274881</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.286416162890731</v>
+        <v>5.286416162890703</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.014311495921476</v>
+        <v>1.014311495921277</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1470030369490019</v>
+        <v>0.1470030369488171</v>
       </c>
       <c r="E8">
-        <v>0.3822924087251209</v>
+        <v>0.3822924087251423</v>
       </c>
       <c r="F8">
-        <v>4.540240109602394</v>
+        <v>4.540240109602308</v>
       </c>
       <c r="G8">
-        <v>3.858275500152899</v>
+        <v>3.858275500152843</v>
       </c>
       <c r="H8">
-        <v>1.647800106181137</v>
+        <v>1.64780010618118</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.375864201356819</v>
+        <v>1.375864201357018</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2309721787553798</v>
+        <v>0.2309721787555361</v>
       </c>
       <c r="E9">
-        <v>0.4895243646485099</v>
+        <v>0.4895243646485028</v>
       </c>
       <c r="F9">
-        <v>6.737331539333525</v>
+        <v>6.73733153933361</v>
       </c>
       <c r="G9">
-        <v>5.745522708434606</v>
+        <v>5.74552270843472</v>
       </c>
       <c r="H9">
-        <v>2.185549106033946</v>
+        <v>2.18554910603396</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.023692342171216</v>
+        <v>9.023692342171245</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.651720820189297</v>
+        <v>1.65172082018907</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3115896301291912</v>
+        <v>0.3115896301293617</v>
       </c>
       <c r="E10">
-        <v>0.5651374901786994</v>
+        <v>0.565137490178671</v>
       </c>
       <c r="F10">
         <v>8.721729620319422</v>
       </c>
       <c r="G10">
-        <v>7.457238816012733</v>
+        <v>7.457238816012762</v>
       </c>
       <c r="H10">
         <v>2.613431871065984</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.070666680453</v>
+        <v>11.07066668045306</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.780993892386277</v>
+        <v>1.780993892386249</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3559781750957143</v>
+        <v>0.3559781750956859</v>
       </c>
       <c r="E11">
-        <v>0.5983269309755173</v>
+        <v>0.5983269309754959</v>
       </c>
       <c r="F11">
-        <v>9.772509265021114</v>
+        <v>9.772509265021171</v>
       </c>
       <c r="G11">
-        <v>8.366134056857618</v>
+        <v>8.366134056857675</v>
       </c>
       <c r="H11">
-        <v>2.81935568513677</v>
+        <v>2.819355685136799</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.0786896644257</v>
+        <v>12.07868966442581</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.830688102901661</v>
+        <v>1.830688102901689</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3744338486459924</v>
+        <v>0.374433848646035</v>
       </c>
       <c r="E12">
-        <v>0.6106482843538359</v>
+        <v>0.6106482843538075</v>
       </c>
       <c r="F12">
-        <v>10.20163213724737</v>
+        <v>10.20163213724729</v>
       </c>
       <c r="G12">
-        <v>8.737791773299762</v>
+        <v>8.737791773299676</v>
       </c>
       <c r="H12">
         <v>2.899484879295116</v>
@@ -836,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3703735835312614</v>
+        <v>0.3703735835308777</v>
       </c>
       <c r="E13">
-        <v>0.6080072381683195</v>
+        <v>0.6080072381683337</v>
       </c>
       <c r="F13">
-        <v>10.1075998491921</v>
+        <v>10.10759984919216</v>
       </c>
       <c r="G13">
-        <v>8.656328213331165</v>
+        <v>8.656328213331193</v>
       </c>
       <c r="H13">
-        <v>2.882120903357048</v>
+        <v>2.882120903357034</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.357459258166827</v>
+        <v>0.3574592581664433</v>
       </c>
       <c r="E14">
-        <v>0.5993461223268142</v>
+        <v>0.5993461223268284</v>
       </c>
       <c r="F14">
-        <v>9.80710952061176</v>
+        <v>9.807109520611789</v>
       </c>
       <c r="G14">
-        <v>8.396090712502939</v>
+        <v>8.396090712502968</v>
       </c>
       <c r="H14">
         <v>2.825900975022336</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.11106301243436</v>
+        <v>12.11106301243439</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.76380329377676</v>
+        <v>1.763803293776533</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3497847914297836</v>
+        <v>0.3497847914297694</v>
       </c>
       <c r="E15">
-        <v>0.5940059738038173</v>
+        <v>0.5940059738038102</v>
       </c>
       <c r="F15">
-        <v>9.627509722756599</v>
+        <v>9.627509722756656</v>
       </c>
       <c r="G15">
-        <v>8.240613992603215</v>
+        <v>8.240613992603244</v>
       </c>
       <c r="H15">
-        <v>2.791764385737963</v>
+        <v>2.791764385737991</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.94246755469734</v>
+        <v>11.94246755469743</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.64336369869838</v>
+        <v>1.64336369869801</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3088832166323812</v>
+        <v>0.3088832166325659</v>
       </c>
       <c r="E16">
-        <v>0.5629387360231917</v>
+        <v>0.5629387360231703</v>
       </c>
       <c r="F16">
         <v>8.656766003454834</v>
@@ -962,7 +962,7 @@
         <v>7.401102581530466</v>
       </c>
       <c r="H16">
-        <v>2.600241464921695</v>
+        <v>2.600241464921709</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.570563827209526</v>
+        <v>1.570563827209696</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2860639883780038</v>
+        <v>0.2860639883780181</v>
       </c>
       <c r="E17">
-        <v>0.5435290604152456</v>
+        <v>0.5435290604152314</v>
       </c>
       <c r="F17">
-        <v>8.104685202251517</v>
+        <v>8.104685202251545</v>
       </c>
       <c r="G17">
-        <v>6.924305757792297</v>
+        <v>6.924305757792354</v>
       </c>
       <c r="H17">
-        <v>2.485949198439059</v>
+        <v>2.485949198439044</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.45523838244637</v>
+        <v>10.45523838244631</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.529032344296809</v>
+        <v>1.529032344296951</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2736215795302854</v>
+        <v>0.2736215795301149</v>
       </c>
       <c r="E18">
-        <v>0.5322573002701034</v>
+        <v>0.5322573002701176</v>
       </c>
       <c r="F18">
         <v>7.80027838696455</v>
       </c>
       <c r="G18">
-        <v>6.661615430698475</v>
+        <v>6.661615430698532</v>
       </c>
       <c r="H18">
-        <v>2.42123215269757</v>
+        <v>2.421232152697627</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.14485821915989</v>
+        <v>10.14485821915991</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.515024303654968</v>
+        <v>1.515024303655082</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2695141303156277</v>
+        <v>0.2695141303157698</v>
       </c>
       <c r="E19">
-        <v>0.5284240458468403</v>
+        <v>0.5284240458468616</v>
       </c>
       <c r="F19">
-        <v>7.699245638098631</v>
+        <v>7.69924563809866</v>
       </c>
       <c r="G19">
-        <v>6.574461284407107</v>
+        <v>6.574461284407164</v>
       </c>
       <c r="H19">
-        <v>2.399482620983747</v>
+        <v>2.399482620983733</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.04082298997099</v>
+        <v>10.04082298997096</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.57827702292974</v>
+        <v>1.578277022930024</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2884195209502565</v>
+        <v>0.2884195209500433</v>
       </c>
       <c r="E20">
-        <v>0.5456068319911367</v>
+        <v>0.545606831991158</v>
       </c>
       <c r="F20">
-        <v>8.162040460092868</v>
+        <v>8.162040460092896</v>
       </c>
       <c r="G20">
-        <v>6.973817480564151</v>
+        <v>6.973817480564207</v>
       </c>
       <c r="H20">
-        <v>2.498007006070083</v>
+        <v>2.498007006070097</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.51320986606473</v>
+        <v>10.51320986606467</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.795289661130028</v>
+        <v>1.795289661129942</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3612018681648692</v>
+        <v>0.3612018681650682</v>
       </c>
       <c r="E21">
-        <v>0.6018975795519239</v>
+        <v>0.6018975795518955</v>
       </c>
       <c r="F21">
         <v>9.89441458971919</v>
       </c>
       <c r="G21">
-        <v>8.471686775345205</v>
+        <v>8.471686775345148</v>
       </c>
       <c r="H21">
-        <v>2.842350355006658</v>
+        <v>2.84235035500663</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.19252374888168</v>
+        <v>12.19252374888171</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.941611797635346</v>
+        <v>1.941611797635176</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4189232063497172</v>
+        <v>0.4189232063495041</v>
       </c>
       <c r="E22">
         <v>0.637179137718384</v>
       </c>
       <c r="F22">
-        <v>11.21865712589528</v>
+        <v>11.21865712589531</v>
       </c>
       <c r="G22">
-        <v>9.619707847188465</v>
+        <v>9.619707847188494</v>
       </c>
       <c r="H22">
-        <v>3.080391610813123</v>
+        <v>3.080391610813081</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.38986554635221</v>
+        <v>13.38986554635218</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.863013556800297</v>
+        <v>1.863013556800041</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3869054140191537</v>
+        <v>0.3869054140189547</v>
       </c>
       <c r="E23">
         <v>0.6185229357147151</v>
       </c>
       <c r="F23">
-        <v>10.48916670777169</v>
+        <v>10.48916670777166</v>
       </c>
       <c r="G23">
         <v>8.986974413684806</v>
       </c>
       <c r="H23">
-        <v>2.951907650938267</v>
+        <v>2.95190765093831</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.574788897262437</v>
+        <v>1.574788897262295</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2873525122103473</v>
+        <v>0.2873525122101483</v>
       </c>
       <c r="E24">
-        <v>0.5446678181551761</v>
+        <v>0.5446678181551903</v>
       </c>
       <c r="F24">
-        <v>8.136070334842373</v>
+        <v>8.136070334842401</v>
       </c>
       <c r="G24">
-        <v>6.951398215686879</v>
+        <v>6.951398215686936</v>
       </c>
       <c r="H24">
-        <v>2.492552620342053</v>
+        <v>2.492552620342039</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.48698051730915</v>
+        <v>10.48698051730918</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.276671936239296</v>
+        <v>1.276671936239268</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.205787754904236</v>
+        <v>0.2057877549042217</v>
       </c>
       <c r="E25">
         <v>0.460943017363789</v>
       </c>
       <c r="F25">
-        <v>6.094180321256715</v>
+        <v>6.094180321256687</v>
       </c>
       <c r="G25">
-        <v>5.192157227280148</v>
+        <v>5.19215722728012</v>
       </c>
       <c r="H25">
         <v>2.035407334090451</v>

--- a/Code/Results/Cases/Case_1_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_line/pl_mw.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.063493312725342</v>
+        <v>1.063493312725114</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1572308296166511</v>
+        <v>0.1572308296164096</v>
       </c>
       <c r="E2">
-        <v>0.3973506715452118</v>
+        <v>0.397350671545226</v>
       </c>
       <c r="F2">
         <v>4.81652283165505</v>
       </c>
       <c r="G2">
-        <v>4.095091844138636</v>
+        <v>4.095091844138608</v>
       </c>
       <c r="H2">
-        <v>1.719387791611254</v>
+        <v>1.719387791611226</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9214296112250508</v>
+        <v>0.9214296112250224</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -459,16 +459,16 @@
         <v>0.1286018863997072</v>
       </c>
       <c r="E3">
-        <v>0.3534893836580935</v>
+        <v>0.3534893836580508</v>
       </c>
       <c r="F3">
-        <v>4.035993014686227</v>
+        <v>4.035993014686255</v>
       </c>
       <c r="G3">
         <v>3.426467133789288</v>
       </c>
       <c r="H3">
-        <v>1.514010566008395</v>
+        <v>1.514010566008409</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.867156500153584</v>
+        <v>5.867156500153555</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -494,7 +494,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1125065523932705</v>
+        <v>0.1125065523933841</v>
       </c>
       <c r="E4">
         <v>0.3262846356407962</v>
@@ -503,10 +503,10 @@
         <v>3.586628122286186</v>
       </c>
       <c r="G4">
-        <v>3.04212464369202</v>
+        <v>3.042124643692048</v>
       </c>
       <c r="H4">
-        <v>1.391247775756597</v>
+        <v>1.391247775756554</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7999479328548773</v>
+        <v>0.799947932854792</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1062480723549157</v>
+        <v>0.1062480723550081</v>
       </c>
       <c r="E5">
-        <v>0.315142191000767</v>
+        <v>0.3151421910007528</v>
       </c>
       <c r="F5">
-        <v>3.409600510874213</v>
+        <v>3.409600510874242</v>
       </c>
       <c r="G5">
-        <v>2.890840354356925</v>
+        <v>2.890840354356953</v>
       </c>
       <c r="H5">
         <v>1.341937501140606</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.056980143970975</v>
+        <v>5.056980143970918</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -573,16 +573,16 @@
         <v>0.1052251652239207</v>
       </c>
       <c r="E6">
-        <v>0.3132889229434923</v>
+        <v>0.3132889229434568</v>
       </c>
       <c r="F6">
         <v>3.380536816106314</v>
       </c>
       <c r="G6">
-        <v>2.866010234906597</v>
+        <v>2.866010234906582</v>
       </c>
       <c r="H6">
-        <v>1.333789590212533</v>
+        <v>1.333789590212504</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.018508779842151</v>
+        <v>5.018508779842136</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8345356991382289</v>
+        <v>0.8345356991382573</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1124210165800008</v>
+        <v>0.1124210165801145</v>
       </c>
       <c r="E7">
-        <v>0.326134577652482</v>
+        <v>0.3261345776524465</v>
       </c>
       <c r="F7">
-        <v>3.584217675071784</v>
+        <v>3.584217675071756</v>
       </c>
       <c r="G7">
-        <v>3.040064227222217</v>
+        <v>3.040064227222246</v>
       </c>
       <c r="H7">
-        <v>1.390580008274881</v>
+        <v>1.390580008274952</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.286416162890703</v>
+        <v>5.286416162890731</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.014311495921277</v>
+        <v>1.014311495921476</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1470030369488171</v>
+        <v>0.1470030369490019</v>
       </c>
       <c r="E8">
-        <v>0.3822924087251423</v>
+        <v>0.3822924087251209</v>
       </c>
       <c r="F8">
-        <v>4.540240109602308</v>
+        <v>4.540240109602394</v>
       </c>
       <c r="G8">
-        <v>3.858275500152843</v>
+        <v>3.858275500152899</v>
       </c>
       <c r="H8">
-        <v>1.64780010618118</v>
+        <v>1.647800106181137</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.375864201357018</v>
+        <v>1.375864201356819</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2309721787555361</v>
+        <v>0.2309721787553798</v>
       </c>
       <c r="E9">
-        <v>0.4895243646485028</v>
+        <v>0.4895243646485099</v>
       </c>
       <c r="F9">
-        <v>6.73733153933361</v>
+        <v>6.737331539333525</v>
       </c>
       <c r="G9">
-        <v>5.74552270843472</v>
+        <v>5.745522708434606</v>
       </c>
       <c r="H9">
-        <v>2.18554910603396</v>
+        <v>2.185549106033946</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.023692342171245</v>
+        <v>9.023692342171216</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.65172082018907</v>
+        <v>1.651720820189297</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3115896301293617</v>
+        <v>0.3115896301291912</v>
       </c>
       <c r="E10">
-        <v>0.565137490178671</v>
+        <v>0.5651374901786994</v>
       </c>
       <c r="F10">
         <v>8.721729620319422</v>
       </c>
       <c r="G10">
-        <v>7.457238816012762</v>
+        <v>7.457238816012733</v>
       </c>
       <c r="H10">
         <v>2.613431871065984</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.07066668045306</v>
+        <v>11.070666680453</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.780993892386249</v>
+        <v>1.780993892386277</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3559781750956859</v>
+        <v>0.3559781750957143</v>
       </c>
       <c r="E11">
-        <v>0.5983269309754959</v>
+        <v>0.5983269309755173</v>
       </c>
       <c r="F11">
-        <v>9.772509265021171</v>
+        <v>9.772509265021114</v>
       </c>
       <c r="G11">
-        <v>8.366134056857675</v>
+        <v>8.366134056857618</v>
       </c>
       <c r="H11">
-        <v>2.819355685136799</v>
+        <v>2.81935568513677</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.07868966442581</v>
+        <v>12.0786896644257</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.830688102901689</v>
+        <v>1.830688102901661</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.374433848646035</v>
+        <v>0.3744338486459924</v>
       </c>
       <c r="E12">
-        <v>0.6106482843538075</v>
+        <v>0.6106482843538359</v>
       </c>
       <c r="F12">
-        <v>10.20163213724729</v>
+        <v>10.20163213724737</v>
       </c>
       <c r="G12">
-        <v>8.737791773299676</v>
+        <v>8.737791773299762</v>
       </c>
       <c r="H12">
         <v>2.899484879295116</v>
@@ -836,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3703735835308777</v>
+        <v>0.3703735835312614</v>
       </c>
       <c r="E13">
-        <v>0.6080072381683337</v>
+        <v>0.6080072381683195</v>
       </c>
       <c r="F13">
-        <v>10.10759984919216</v>
+        <v>10.1075998491921</v>
       </c>
       <c r="G13">
-        <v>8.656328213331193</v>
+        <v>8.656328213331165</v>
       </c>
       <c r="H13">
-        <v>2.882120903357034</v>
+        <v>2.882120903357048</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3574592581664433</v>
+        <v>0.357459258166827</v>
       </c>
       <c r="E14">
-        <v>0.5993461223268284</v>
+        <v>0.5993461223268142</v>
       </c>
       <c r="F14">
-        <v>9.807109520611789</v>
+        <v>9.80710952061176</v>
       </c>
       <c r="G14">
-        <v>8.396090712502968</v>
+        <v>8.396090712502939</v>
       </c>
       <c r="H14">
         <v>2.825900975022336</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.11106301243439</v>
+        <v>12.11106301243436</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.763803293776533</v>
+        <v>1.76380329377676</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3497847914297694</v>
+        <v>0.3497847914297836</v>
       </c>
       <c r="E15">
-        <v>0.5940059738038102</v>
+        <v>0.5940059738038173</v>
       </c>
       <c r="F15">
-        <v>9.627509722756656</v>
+        <v>9.627509722756599</v>
       </c>
       <c r="G15">
-        <v>8.240613992603244</v>
+        <v>8.240613992603215</v>
       </c>
       <c r="H15">
-        <v>2.791764385737991</v>
+        <v>2.791764385737963</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.94246755469743</v>
+        <v>11.94246755469734</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.64336369869801</v>
+        <v>1.64336369869838</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3088832166325659</v>
+        <v>0.3088832166323812</v>
       </c>
       <c r="E16">
-        <v>0.5629387360231703</v>
+        <v>0.5629387360231917</v>
       </c>
       <c r="F16">
         <v>8.656766003454834</v>
@@ -962,7 +962,7 @@
         <v>7.401102581530466</v>
       </c>
       <c r="H16">
-        <v>2.600241464921709</v>
+        <v>2.600241464921695</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.570563827209696</v>
+        <v>1.570563827209526</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2860639883780181</v>
+        <v>0.2860639883780038</v>
       </c>
       <c r="E17">
-        <v>0.5435290604152314</v>
+        <v>0.5435290604152456</v>
       </c>
       <c r="F17">
-        <v>8.104685202251545</v>
+        <v>8.104685202251517</v>
       </c>
       <c r="G17">
-        <v>6.924305757792354</v>
+        <v>6.924305757792297</v>
       </c>
       <c r="H17">
-        <v>2.485949198439044</v>
+        <v>2.485949198439059</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.45523838244631</v>
+        <v>10.45523838244637</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.529032344296951</v>
+        <v>1.529032344296809</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2736215795301149</v>
+        <v>0.2736215795302854</v>
       </c>
       <c r="E18">
-        <v>0.5322573002701176</v>
+        <v>0.5322573002701034</v>
       </c>
       <c r="F18">
         <v>7.80027838696455</v>
       </c>
       <c r="G18">
-        <v>6.661615430698532</v>
+        <v>6.661615430698475</v>
       </c>
       <c r="H18">
-        <v>2.421232152697627</v>
+        <v>2.42123215269757</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.14485821915991</v>
+        <v>10.14485821915989</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.515024303655082</v>
+        <v>1.515024303654968</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2695141303157698</v>
+        <v>0.2695141303156277</v>
       </c>
       <c r="E19">
-        <v>0.5284240458468616</v>
+        <v>0.5284240458468403</v>
       </c>
       <c r="F19">
-        <v>7.69924563809866</v>
+        <v>7.699245638098631</v>
       </c>
       <c r="G19">
-        <v>6.574461284407164</v>
+        <v>6.574461284407107</v>
       </c>
       <c r="H19">
-        <v>2.399482620983733</v>
+        <v>2.399482620983747</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.04082298997096</v>
+        <v>10.04082298997099</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.578277022930024</v>
+        <v>1.57827702292974</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2884195209500433</v>
+        <v>0.2884195209502565</v>
       </c>
       <c r="E20">
-        <v>0.545606831991158</v>
+        <v>0.5456068319911367</v>
       </c>
       <c r="F20">
-        <v>8.162040460092896</v>
+        <v>8.162040460092868</v>
       </c>
       <c r="G20">
-        <v>6.973817480564207</v>
+        <v>6.973817480564151</v>
       </c>
       <c r="H20">
-        <v>2.498007006070097</v>
+        <v>2.498007006070083</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.51320986606467</v>
+        <v>10.51320986606473</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.795289661129942</v>
+        <v>1.795289661130028</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3612018681650682</v>
+        <v>0.3612018681648692</v>
       </c>
       <c r="E21">
-        <v>0.6018975795518955</v>
+        <v>0.6018975795519239</v>
       </c>
       <c r="F21">
         <v>9.89441458971919</v>
       </c>
       <c r="G21">
-        <v>8.471686775345148</v>
+        <v>8.471686775345205</v>
       </c>
       <c r="H21">
-        <v>2.84235035500663</v>
+        <v>2.842350355006658</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.19252374888171</v>
+        <v>12.19252374888168</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.941611797635176</v>
+        <v>1.941611797635346</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4189232063495041</v>
+        <v>0.4189232063497172</v>
       </c>
       <c r="E22">
         <v>0.637179137718384</v>
       </c>
       <c r="F22">
-        <v>11.21865712589531</v>
+        <v>11.21865712589528</v>
       </c>
       <c r="G22">
-        <v>9.619707847188494</v>
+        <v>9.619707847188465</v>
       </c>
       <c r="H22">
-        <v>3.080391610813081</v>
+        <v>3.080391610813123</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.38986554635218</v>
+        <v>13.38986554635221</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.863013556800041</v>
+        <v>1.863013556800297</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3869054140189547</v>
+        <v>0.3869054140191537</v>
       </c>
       <c r="E23">
         <v>0.6185229357147151</v>
       </c>
       <c r="F23">
-        <v>10.48916670777166</v>
+        <v>10.48916670777169</v>
       </c>
       <c r="G23">
         <v>8.986974413684806</v>
       </c>
       <c r="H23">
-        <v>2.95190765093831</v>
+        <v>2.951907650938267</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.574788897262295</v>
+        <v>1.574788897262437</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2873525122101483</v>
+        <v>0.2873525122103473</v>
       </c>
       <c r="E24">
-        <v>0.5446678181551903</v>
+        <v>0.5446678181551761</v>
       </c>
       <c r="F24">
-        <v>8.136070334842401</v>
+        <v>8.136070334842373</v>
       </c>
       <c r="G24">
-        <v>6.951398215686936</v>
+        <v>6.951398215686879</v>
       </c>
       <c r="H24">
-        <v>2.492552620342039</v>
+        <v>2.492552620342053</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.48698051730918</v>
+        <v>10.48698051730915</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.276671936239268</v>
+        <v>1.276671936239296</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2057877549042217</v>
+        <v>0.205787754904236</v>
       </c>
       <c r="E25">
         <v>0.460943017363789</v>
       </c>
       <c r="F25">
-        <v>6.094180321256687</v>
+        <v>6.094180321256715</v>
       </c>
       <c r="G25">
-        <v>5.19215722728012</v>
+        <v>5.192157227280148</v>
       </c>
       <c r="H25">
         <v>2.035407334090451</v>

--- a/Code/Results/Cases/Case_1_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.063493312725114</v>
+        <v>1.063901029875097</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1572308296164096</v>
+        <v>0.1565115521595857</v>
       </c>
       <c r="E2">
-        <v>0.397350671545226</v>
+        <v>0.3966723744799197</v>
       </c>
       <c r="F2">
-        <v>4.81652283165505</v>
+        <v>4.805981816851556</v>
       </c>
       <c r="G2">
-        <v>4.095091844138608</v>
+        <v>1.389464883221109</v>
       </c>
       <c r="H2">
-        <v>1.719387791611226</v>
+        <v>2.696865759217673</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.720735442932465</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,36 +445,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.83090977812617</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>6.825839665115154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9214296112250224</v>
+        <v>0.9217912762602509</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1286018863997072</v>
+        <v>0.1280188124310513</v>
       </c>
       <c r="E3">
-        <v>0.3534893836580508</v>
+        <v>0.3528931997358313</v>
       </c>
       <c r="F3">
-        <v>4.035993014686255</v>
+        <v>4.027451494029378</v>
       </c>
       <c r="G3">
-        <v>3.426467133789288</v>
+        <v>1.160931508689544</v>
       </c>
       <c r="H3">
-        <v>1.514010566008409</v>
+        <v>2.259205448455873</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.515195884814304</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,36 +486,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.867156500153555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>5.863027353725386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8350091203913621</v>
+        <v>0.8353413490559092</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1125065523933841</v>
+        <v>0.1119986771483354</v>
       </c>
       <c r="E4">
-        <v>0.3262846356407962</v>
+        <v>0.3257398390045196</v>
       </c>
       <c r="F4">
-        <v>3.586628122286186</v>
+        <v>3.579185872519986</v>
       </c>
       <c r="G4">
-        <v>3.042124643692048</v>
+        <v>1.029318593588044</v>
       </c>
       <c r="H4">
-        <v>1.391247775756554</v>
+        <v>2.007832208489347</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.392330605385425</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,36 +527,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.289563252792476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>5.28595415829875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.799947932854792</v>
+        <v>0.8002679397124552</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1062480723550081</v>
+        <v>0.1057691975366808</v>
       </c>
       <c r="E5">
-        <v>0.3151421910007528</v>
+        <v>0.3146185642161043</v>
       </c>
       <c r="F5">
-        <v>3.409600510874242</v>
+        <v>3.402581377898429</v>
       </c>
       <c r="G5">
-        <v>2.890840354356953</v>
+        <v>0.9774554205393571</v>
       </c>
       <c r="H5">
-        <v>1.341937501140606</v>
+        <v>1.908937268257631</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.342978011665636</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,36 +568,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.056980143970918</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>5.053571943423748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7941342151875119</v>
+        <v>0.7944521805123657</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1052251652239207</v>
+        <v>0.1047510182750031</v>
       </c>
       <c r="E6">
-        <v>0.3132889229434568</v>
+        <v>0.312768824884273</v>
       </c>
       <c r="F6">
-        <v>3.380536816106314</v>
+        <v>3.373586621828792</v>
       </c>
       <c r="G6">
-        <v>2.866010234906582</v>
+        <v>0.9689397748844755</v>
       </c>
       <c r="H6">
-        <v>1.333789590212504</v>
+        <v>1.892708752082953</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.334823043852239</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,36 +609,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.018508779842136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>5.015133355575998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8345356991382573</v>
+        <v>0.8348677638190907</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1124210165801145</v>
+        <v>0.1119135385598042</v>
       </c>
       <c r="E7">
-        <v>0.3261345776524465</v>
+        <v>0.3255900656088215</v>
       </c>
       <c r="F7">
-        <v>3.584217675071756</v>
+        <v>3.576781223794427</v>
       </c>
       <c r="G7">
-        <v>3.040064227222246</v>
+        <v>1.028612475678003</v>
       </c>
       <c r="H7">
-        <v>1.390580008274952</v>
+        <v>2.006485104796752</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.391662269247163</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,36 +650,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.286416162890731</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>5.282809818473396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.014311495921476</v>
+        <v>1.014703621510421</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1470030369490019</v>
+        <v>0.1463328029409752</v>
       </c>
       <c r="E8">
-        <v>0.3822924087251209</v>
+        <v>0.3816422127011734</v>
       </c>
       <c r="F8">
-        <v>4.540240109602394</v>
+        <v>4.530420368387468</v>
       </c>
       <c r="G8">
-        <v>3.858275500152899</v>
+        <v>1.308578067868666</v>
       </c>
       <c r="H8">
-        <v>1.647800106181137</v>
+        <v>2.541808106496802</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.649092479848491</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,36 +691,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.495154954292218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>6.490423695049031</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.375864201356819</v>
+        <v>1.376360309033174</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2309721787553798</v>
+        <v>0.2298842276571094</v>
       </c>
       <c r="E9">
-        <v>0.4895243646485099</v>
+        <v>0.488675637531081</v>
       </c>
       <c r="F9">
-        <v>6.737331539333525</v>
+        <v>6.721318254998835</v>
       </c>
       <c r="G9">
-        <v>5.745522708434606</v>
+        <v>1.951815262877716</v>
       </c>
       <c r="H9">
-        <v>2.185549106033946</v>
+        <v>3.778493089215488</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.187220146889089</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,36 +732,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.023692342171216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>9.016061581529954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.651720820189297</v>
+        <v>1.652273395348629</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3115896301291912</v>
+        <v>0.3100595040055651</v>
       </c>
       <c r="E10">
-        <v>0.5651374901786994</v>
+        <v>0.5641508266943731</v>
       </c>
       <c r="F10">
-        <v>8.721729620319422</v>
+        <v>8.699033027768536</v>
       </c>
       <c r="G10">
-        <v>7.457238816012733</v>
+        <v>2.533073606188196</v>
       </c>
       <c r="H10">
-        <v>2.613431871065984</v>
+        <v>4.901389881482459</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.615332579072842</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,36 +773,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.070666680453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>11.05991011338224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.780993892386277</v>
+        <v>1.781562016486163</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3559781750957143</v>
+        <v>0.3541813414703938</v>
       </c>
       <c r="E11">
-        <v>0.5983269309755173</v>
+        <v>0.597280608423155</v>
       </c>
       <c r="F11">
-        <v>9.772509265021114</v>
+        <v>9.745720378372823</v>
       </c>
       <c r="G11">
-        <v>8.366134056857618</v>
+        <v>2.841043893926155</v>
       </c>
       <c r="H11">
-        <v>2.81935568513677</v>
+        <v>5.497826204520663</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.821335830808337</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,36 +814,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.0786896644257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>12.06601264022044</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.830688102901661</v>
+        <v>1.831259596179393</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3744338486459924</v>
+        <v>0.3725201544111343</v>
       </c>
       <c r="E12">
-        <v>0.6106482843538359</v>
+        <v>0.6095800749587852</v>
       </c>
       <c r="F12">
-        <v>10.20163213724737</v>
+        <v>10.17303654842746</v>
       </c>
       <c r="G12">
-        <v>8.737791773299762</v>
+        <v>2.966852092302616</v>
       </c>
       <c r="H12">
-        <v>2.899484879295116</v>
+        <v>5.741723465442902</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.901488828665023</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,36 +855,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.47663649374232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>12.46310949288736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.819948467864975</v>
+        <v>1.820519374828564</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3703735835312614</v>
+        <v>0.3684859267847855</v>
       </c>
       <c r="E13">
-        <v>0.6080072381683195</v>
+        <v>0.6069437042978976</v>
       </c>
       <c r="F13">
-        <v>10.1075998491921</v>
+        <v>10.07940750298422</v>
       </c>
       <c r="G13">
-        <v>8.656328213331165</v>
+        <v>2.939282324759233</v>
       </c>
       <c r="H13">
-        <v>2.882120903357048</v>
+        <v>5.688263933834349</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.884120074499521</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,36 +896,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.39009300776391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>12.37675583388292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.785065958805404</v>
+        <v>1.785634419960246</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.357459258166827</v>
+        <v>0.3556531847592908</v>
       </c>
       <c r="E14">
-        <v>0.5993461223268142</v>
+        <v>0.5982979826525749</v>
       </c>
       <c r="F14">
-        <v>9.80710952061176</v>
+        <v>9.780178078524131</v>
       </c>
       <c r="G14">
-        <v>8.396090712502939</v>
+        <v>2.851187033565566</v>
       </c>
       <c r="H14">
-        <v>2.825900975022336</v>
+        <v>5.517485056024128</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.827883228639493</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,36 +937,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.11106301243436</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>12.09831897117283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.76380329377676</v>
+        <v>1.764369882119098</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3497847914297836</v>
+        <v>0.3480263433667261</v>
       </c>
       <c r="E15">
-        <v>0.5940059738038173</v>
+        <v>0.5929673669682387</v>
       </c>
       <c r="F15">
-        <v>9.627509722756599</v>
+        <v>9.60131251584022</v>
       </c>
       <c r="G15">
-        <v>8.240613992603215</v>
+        <v>2.798538505986755</v>
       </c>
       <c r="H15">
-        <v>2.791764385737963</v>
+        <v>5.415454640685425</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.793735341187428</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,36 +978,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.94246755469734</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>11.93006859795292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.64336369869838</v>
+        <v>1.643914980875138</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3088832166323812</v>
+        <v>0.3073687569306713</v>
       </c>
       <c r="E16">
-        <v>0.5629387360231917</v>
+        <v>0.5619560512137056</v>
       </c>
       <c r="F16">
-        <v>8.656766003454834</v>
+        <v>8.634308401506502</v>
       </c>
       <c r="G16">
-        <v>7.401102581530466</v>
+        <v>2.514037919311164</v>
       </c>
       <c r="H16">
-        <v>2.600241464921695</v>
+        <v>4.86455453212659</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.602136294430849</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,36 +1019,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.00671728095742</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>10.9960726808774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.570563827209526</v>
+        <v>1.571102592682706</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2860639883780038</v>
+        <v>0.2846791680962326</v>
       </c>
       <c r="E17">
-        <v>0.5435290604152456</v>
+        <v>0.5425816007316726</v>
       </c>
       <c r="F17">
-        <v>8.104685202251517</v>
+        <v>8.084199140400756</v>
       </c>
       <c r="G17">
-        <v>6.924305757792297</v>
+        <v>2.352286759530074</v>
       </c>
       <c r="H17">
-        <v>2.485949198439059</v>
+        <v>4.551710463879573</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.487789582474548</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,36 +1060,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.45523838244637</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>10.44551677191916</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.529032344296809</v>
+        <v>1.52956304643547</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2736215795302854</v>
+        <v>0.2723056977283846</v>
       </c>
       <c r="E18">
-        <v>0.5322573002701034</v>
+        <v>0.5313303696055627</v>
       </c>
       <c r="F18">
-        <v>7.80027838696455</v>
+        <v>7.780836240393825</v>
       </c>
       <c r="G18">
-        <v>6.661615430698475</v>
+        <v>2.263115138219888</v>
       </c>
       <c r="H18">
-        <v>2.42123215269757</v>
+        <v>4.379367890433798</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.42303909252837</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,36 +1101,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.14485821915989</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>10.13562489680083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.515024303654968</v>
+        <v>1.51555214793629</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2695141303156277</v>
+        <v>0.2682207504418272</v>
       </c>
       <c r="E19">
-        <v>0.5284240458468403</v>
+        <v>0.5275041071226525</v>
       </c>
       <c r="F19">
-        <v>7.699245638098631</v>
+        <v>7.680143548679695</v>
       </c>
       <c r="G19">
-        <v>6.574461284407107</v>
+        <v>2.233521291507117</v>
       </c>
       <c r="H19">
-        <v>2.399482620983747</v>
+        <v>4.32219233753662</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.401277923380064</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,36 +1142,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.04082298997099</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>10.03174867539755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.57827702292974</v>
+        <v>1.578817215488755</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2884195209502565</v>
+        <v>0.2870215147748354</v>
       </c>
       <c r="E20">
-        <v>0.5456068319911367</v>
+        <v>0.544655593492287</v>
       </c>
       <c r="F20">
-        <v>8.162040460092868</v>
+        <v>8.141354370461613</v>
       </c>
       <c r="G20">
-        <v>6.973817480564151</v>
+        <v>2.369089325959322</v>
       </c>
       <c r="H20">
-        <v>2.498007006070083</v>
+        <v>4.584195097823454</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.499853419359638</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,36 +1183,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.51320986606473</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>10.50339466221075</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.795289661130028</v>
+        <v>1.795858922107556</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3612018681648692</v>
+        <v>0.3593723409076404</v>
       </c>
       <c r="E21">
-        <v>0.6018975795519239</v>
+        <v>0.6008448958255954</v>
       </c>
       <c r="F21">
-        <v>9.89441458971919</v>
+        <v>9.867121062271735</v>
       </c>
       <c r="G21">
-        <v>8.471686775345205</v>
+        <v>2.876781329869544</v>
       </c>
       <c r="H21">
-        <v>2.842350355006658</v>
+        <v>5.56709446837408</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.84433778119724</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,36 +1224,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.19252374888168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>12.17960944931184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.941611797635346</v>
+        <v>1.942183976881381</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4189232063497172</v>
+        <v>0.4167108469303997</v>
       </c>
       <c r="E22">
-        <v>0.637179137718384</v>
+        <v>0.6360646213899415</v>
       </c>
       <c r="F22">
-        <v>11.21865712589528</v>
+        <v>11.18540884763505</v>
       </c>
       <c r="G22">
-        <v>9.619707847188465</v>
+        <v>3.265100636549107</v>
       </c>
       <c r="H22">
-        <v>3.080391610813123</v>
+        <v>6.320437333770798</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.082431049728598</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,36 +1265,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.38986554635221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>13.37414323281112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.863013556800297</v>
+        <v>1.863586304724436</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3869054140191537</v>
+        <v>0.3849105298032924</v>
       </c>
       <c r="E23">
-        <v>0.6185229357147151</v>
+        <v>0.6174408455726947</v>
       </c>
       <c r="F23">
-        <v>10.48916670777169</v>
+        <v>10.45931122368802</v>
       </c>
       <c r="G23">
-        <v>8.986974413684806</v>
+        <v>3.051161936059657</v>
       </c>
       <c r="H23">
-        <v>2.951907650938267</v>
+        <v>5.905244710724588</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.953924665529854</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,36 +1306,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.7390212962467</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>12.72490075221225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.574788897262437</v>
+        <v>1.575328447272398</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2873525122103473</v>
+        <v>0.2859604844023949</v>
       </c>
       <c r="E24">
-        <v>0.5446678181551761</v>
+        <v>0.5437182872096358</v>
       </c>
       <c r="F24">
-        <v>8.136070334842373</v>
+        <v>8.115474950214377</v>
       </c>
       <c r="G24">
-        <v>6.951398215686879</v>
+        <v>2.361481175823201</v>
       </c>
       <c r="H24">
-        <v>2.492552620342053</v>
+        <v>4.569485762458754</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.494396314317044</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,36 +1347,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.48698051730915</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>10.47720775578895</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.276671936239296</v>
+        <v>1.277142225521771</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.205787754904236</v>
+        <v>0.2048289767183746</v>
       </c>
       <c r="E25">
-        <v>0.460943017363789</v>
+        <v>0.4601468793099102</v>
       </c>
       <c r="F25">
-        <v>6.094180321256715</v>
+        <v>6.080094683177748</v>
       </c>
       <c r="G25">
-        <v>5.192157227280148</v>
+        <v>1.76350557860934</v>
       </c>
       <c r="H25">
-        <v>2.035407334090451</v>
+        <v>3.415680154479901</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.036981526342018</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.315050590082905</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>8.308320693715501</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.063901029875097</v>
+        <v>0.2701051303332775</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1565115521595857</v>
+        <v>0.07562036770721647</v>
       </c>
       <c r="E2">
-        <v>0.3966723744799197</v>
+        <v>0.130157177693274</v>
       </c>
       <c r="F2">
-        <v>4.805981816851556</v>
+        <v>2.326251269063334</v>
       </c>
       <c r="G2">
-        <v>1.389464883221109</v>
+        <v>0.0007372156630657088</v>
       </c>
       <c r="H2">
-        <v>2.696865759217673</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.720735442932465</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2363095307131289</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.03227346773124</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>6.825839665115154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.558029913417144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9217912762602509</v>
+        <v>0.2356305721228438</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1280188124310513</v>
+        <v>0.06545736299111127</v>
       </c>
       <c r="E3">
-        <v>0.3528931997358313</v>
+        <v>0.1152072022737443</v>
       </c>
       <c r="F3">
-        <v>4.027451494029378</v>
+        <v>2.029286780433694</v>
       </c>
       <c r="G3">
-        <v>1.160931508689544</v>
+        <v>0.0007538204726210053</v>
       </c>
       <c r="H3">
-        <v>2.259205448455873</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.515195884814304</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2064960184953932</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>9.497748891554863</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>5.863027353725386</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.348339670811768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8353413490559092</v>
+        <v>0.2147295861972367</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1119986771483354</v>
+        <v>0.05948219272296029</v>
       </c>
       <c r="E4">
-        <v>0.3257398390045196</v>
+        <v>0.106316325120833</v>
       </c>
       <c r="F4">
-        <v>3.579185872519986</v>
+        <v>1.866751929189036</v>
       </c>
       <c r="G4">
-        <v>1.029318593588044</v>
+        <v>0.0007640721428084289</v>
       </c>
       <c r="H4">
-        <v>2.007832208489347</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.392330605385425</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1892235302139795</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>8.575179571778676</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>5.28595415829875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.235023123514793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8002679397124552</v>
+        <v>0.206270272472679</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1057691975366808</v>
+        <v>0.0570995574531139</v>
       </c>
       <c r="E5">
-        <v>0.3146185642161043</v>
+        <v>0.1027537877121389</v>
       </c>
       <c r="F5">
-        <v>3.402581377898429</v>
+        <v>1.804757450477609</v>
       </c>
       <c r="G5">
-        <v>0.9774554205393571</v>
+        <v>0.0007682742715321892</v>
       </c>
       <c r="H5">
-        <v>1.908937268257631</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.342978011665636</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1824040772108049</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>8.203146695148348</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>5.053571943423748</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.192145569605586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7944521805123657</v>
+        <v>0.2048688692825635</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1047510182750031</v>
+        <v>0.05670671012260442</v>
       </c>
       <c r="E6">
-        <v>0.312768824884273</v>
+        <v>0.1021655754459267</v>
       </c>
       <c r="F6">
-        <v>3.373586621828792</v>
+        <v>1.794700089316208</v>
       </c>
       <c r="G6">
-        <v>0.9689397748844755</v>
+        <v>0.0007689737819142602</v>
       </c>
       <c r="H6">
-        <v>1.892708752082953</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.334823043852239</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.181283892858346</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>8.141581180340353</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>5.015133355575998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.185209934780957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8348677638190907</v>
+        <v>0.2146152772283614</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1119135385598042</v>
+        <v>0.05944986501248906</v>
       </c>
       <c r="E7">
-        <v>0.3255900656088215</v>
+        <v>0.1062680486796204</v>
       </c>
       <c r="F7">
-        <v>3.576781223794427</v>
+        <v>1.865899570548493</v>
       </c>
       <c r="G7">
-        <v>1.028612475678003</v>
+        <v>0.0007641287026279635</v>
       </c>
       <c r="H7">
-        <v>2.006485104796752</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.391662269247163</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1891307217804368</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>8.570147550311447</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>5.282809818473396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.234432197624585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.014703621510421</v>
+        <v>0.258157206100563</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1463328029409752</v>
+        <v>0.07205167060231332</v>
       </c>
       <c r="E8">
-        <v>0.3816422127011734</v>
+        <v>0.1249346892415382</v>
       </c>
       <c r="F8">
-        <v>4.530420368387468</v>
+        <v>2.219260082588647</v>
       </c>
       <c r="G8">
-        <v>1.308578067868666</v>
+        <v>0.0007429361296363934</v>
       </c>
       <c r="H8">
-        <v>2.541808106496802</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.649092479848491</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.225788692454401</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.4984262617028</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>6.490423695049031</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.482141938243956</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.376360309033174</v>
+        <v>0.3461342465558488</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2298842276571094</v>
+        <v>0.09969313371600208</v>
       </c>
       <c r="E9">
-        <v>0.488675637531081</v>
+        <v>0.1645035946233229</v>
       </c>
       <c r="F9">
-        <v>6.721318254998835</v>
+        <v>3.111454912020861</v>
       </c>
       <c r="G9">
-        <v>1.951815262877716</v>
+        <v>0.0007012389851105836</v>
       </c>
       <c r="H9">
-        <v>3.778493089215488</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.187220146889089</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3081741549691941</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.49290569366644</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>9.016061581529954</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.12350341597768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.652273395348629</v>
+        <v>0.4131583819787465</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3100595040055651</v>
+        <v>0.123359458633999</v>
       </c>
       <c r="E10">
-        <v>0.5641508266943731</v>
+        <v>0.1966273365513089</v>
       </c>
       <c r="F10">
-        <v>8.699033027768536</v>
+        <v>3.967516834707396</v>
       </c>
       <c r="G10">
-        <v>2.533073606188196</v>
+        <v>0.0006694328426086445</v>
       </c>
       <c r="H10">
-        <v>4.901389881482459</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.615332579072842</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3794002993519854</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.66338114321871</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>11.05991011338224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.75188547558578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.781562016486163</v>
+        <v>0.4444050269932944</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3541813414703938</v>
+        <v>0.1353972432259738</v>
       </c>
       <c r="E11">
-        <v>0.597280608423155</v>
+        <v>0.2123175874463428</v>
       </c>
       <c r="F11">
-        <v>9.745720378372823</v>
+        <v>4.427444365494836</v>
       </c>
       <c r="G11">
-        <v>2.841043893926155</v>
+        <v>0.0006543442479424177</v>
       </c>
       <c r="H11">
-        <v>5.497826204520663</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.821335830808337</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4155767264425947</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>19.19193525893098</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>12.06601264022044</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>3.093143915266594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.831259596179393</v>
+        <v>0.4563725312395377</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3725201544111343</v>
+        <v>0.1402077815957554</v>
       </c>
       <c r="E12">
-        <v>0.6095800749587852</v>
+        <v>0.2184651425047619</v>
       </c>
       <c r="F12">
-        <v>10.17303654842746</v>
+        <v>4.615156427090824</v>
       </c>
       <c r="G12">
-        <v>2.966852092302616</v>
+        <v>0.0006484957842351097</v>
       </c>
       <c r="H12">
-        <v>5.741723465442902</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.901488828665023</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4300011450824428</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>19.78749112217832</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>12.46310949288736</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>3.233034756022548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.820519374828564</v>
+        <v>0.4537886060097236</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3684859267847855</v>
+        <v>0.1391591139689581</v>
       </c>
       <c r="E13">
-        <v>0.6069437042978976</v>
+        <v>0.2171309619614306</v>
       </c>
       <c r="F13">
-        <v>10.07940750298422</v>
+        <v>4.574057058036203</v>
       </c>
       <c r="G13">
-        <v>2.939282324759233</v>
+        <v>0.0006497622756694624</v>
       </c>
       <c r="H13">
-        <v>5.688263933834349</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.884120074499521</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4268586224679467</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>19.65839657523765</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>12.37675583388292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>3.202377325156235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.785634419960246</v>
+        <v>0.4453867159586338</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3556531847592908</v>
+        <v>0.1357874566272699</v>
       </c>
       <c r="E14">
-        <v>0.5982979826525749</v>
+        <v>0.2128188577833114</v>
       </c>
       <c r="F14">
-        <v>9.780178078524131</v>
+        <v>4.442591485724222</v>
       </c>
       <c r="G14">
-        <v>2.851187033565566</v>
+        <v>0.0006538661186248351</v>
       </c>
       <c r="H14">
-        <v>5.517485056024128</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.827883228639493</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4167475896558699</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>19.24056608461649</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>12.09831897117283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>3.104419669236933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.764369882119098</v>
+        <v>0.4402588140901429</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3480263433667261</v>
+        <v>0.1337575889138094</v>
       </c>
       <c r="E15">
-        <v>0.5929673669682387</v>
+        <v>0.2102062483718328</v>
       </c>
       <c r="F15">
-        <v>9.60131251584022</v>
+        <v>4.363954028811037</v>
       </c>
       <c r="G15">
-        <v>2.798538505986755</v>
+        <v>0.0006563606326340214</v>
       </c>
       <c r="H15">
-        <v>5.415454640685425</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.793735341187428</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4106553801030657</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>18.98696717304136</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>11.93006859795292</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>3.045905213541118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.643914980875138</v>
+        <v>0.4111336522730369</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3073687569306713</v>
+        <v>0.1226036633500627</v>
       </c>
       <c r="E16">
-        <v>0.5619560512137056</v>
+        <v>0.195627566219791</v>
       </c>
       <c r="F16">
-        <v>8.634308401506502</v>
+        <v>3.939140270452981</v>
       </c>
       <c r="G16">
-        <v>2.514037919311164</v>
+        <v>0.0006704029299071618</v>
       </c>
       <c r="H16">
-        <v>4.86455453212659</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.602136294430849</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.377126093160939</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.56555692392641</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>10.9960726808774</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.73090553784408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.571102592682706</v>
+        <v>0.3934767077482064</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2846791680962326</v>
+        <v>0.1161281313928555</v>
       </c>
       <c r="E17">
-        <v>0.5425816007316726</v>
+        <v>0.1869907472110128</v>
       </c>
       <c r="F17">
-        <v>8.084199140400756</v>
+        <v>3.698628819037623</v>
       </c>
       <c r="G17">
-        <v>2.352286759530074</v>
+        <v>0.0006788312555109594</v>
       </c>
       <c r="H17">
-        <v>4.551710463879573</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.487789582474548</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3576333483006664</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.71827986788924</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>10.44551677191916</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.553467003611217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.52956304643547</v>
+        <v>0.3833902478737912</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2723056977283846</v>
+        <v>0.1125179474993629</v>
       </c>
       <c r="E18">
-        <v>0.5313303696055627</v>
+        <v>0.1821205515705486</v>
       </c>
       <c r="F18">
-        <v>7.780836240393825</v>
+        <v>3.566666546589573</v>
       </c>
       <c r="G18">
-        <v>2.263115138219888</v>
+        <v>0.000683624158999295</v>
       </c>
       <c r="H18">
-        <v>4.379367890433798</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.42303909252837</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3467629995548549</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.23874166045181</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>10.13562489680083</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.456416370741692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.51555214793629</v>
+        <v>0.3799863696138743</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2682207504418272</v>
+        <v>0.1113135509517846</v>
       </c>
       <c r="E19">
-        <v>0.5275041071226525</v>
+        <v>0.1804870571200468</v>
       </c>
       <c r="F19">
-        <v>7.680143548679695</v>
+        <v>3.522997250086007</v>
       </c>
       <c r="G19">
-        <v>2.233521291507117</v>
+        <v>0.0006852386607299636</v>
       </c>
       <c r="H19">
-        <v>4.32219233753662</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.401277923380064</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3431366187577396</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.07760922258234</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>10.03174867539755</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.424350485121636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.578817215488755</v>
+        <v>0.3953489751995249</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2870215147748354</v>
+        <v>0.1168052091637932</v>
       </c>
       <c r="E20">
-        <v>0.544655593492287</v>
+        <v>0.1878997511032665</v>
       </c>
       <c r="F20">
-        <v>8.141354370461613</v>
+        <v>3.723551429252524</v>
       </c>
       <c r="G20">
-        <v>2.369089325959322</v>
+        <v>0.0006779399990948596</v>
       </c>
       <c r="H20">
-        <v>4.584195097823454</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.499853419359638</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3596719494302505</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16.80764101003751</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>10.50339466221075</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.571821115073746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.795858922107556</v>
+        <v>0.4478506415004659</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3593723409076404</v>
+        <v>0.1367702561790267</v>
       </c>
       <c r="E21">
-        <v>0.6008448958255954</v>
+        <v>0.2140793296277224</v>
       </c>
       <c r="F21">
-        <v>9.867121062271735</v>
+        <v>4.480804260956518</v>
       </c>
       <c r="G21">
-        <v>2.876781329869544</v>
+        <v>0.0006526648322160563</v>
       </c>
       <c r="H21">
-        <v>5.56709446837408</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.84433778119724</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.4196959422915256</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>19.36279635755739</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>12.17960944931184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>3.132875747583881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.942183976881381</v>
+        <v>0.482969349737445</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4167108469303997</v>
+        <v>0.1513445514448222</v>
       </c>
       <c r="E22">
-        <v>0.6360646213899415</v>
+        <v>0.2324303704215325</v>
       </c>
       <c r="F22">
-        <v>11.18540884763505</v>
+        <v>5.057443262192777</v>
       </c>
       <c r="G22">
-        <v>3.265100636549107</v>
+        <v>0.0006353240800846698</v>
       </c>
       <c r="H22">
-        <v>6.320437333770798</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3.082431049728598</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.4632988265762634</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21.13363177121869</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>13.37414323281112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>3.563904529056998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.863586304724436</v>
+        <v>0.4641412310002977</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3849105298032924</v>
+        <v>0.1433950013035599</v>
       </c>
       <c r="E23">
-        <v>0.6174408455726947</v>
+        <v>0.2224998093505022</v>
       </c>
       <c r="F23">
-        <v>10.45931122368802</v>
+        <v>4.740665389065242</v>
       </c>
       <c r="G23">
-        <v>3.051161936059657</v>
+        <v>0.0006446747954139834</v>
       </c>
       <c r="H23">
-        <v>5.905244710724588</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2.953924665529854</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.439545168875128</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>20.17735935197402</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>12.72490075221225</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>3.326752083633636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.575328447272398</v>
+        <v>0.394502323262131</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2859604844023949</v>
+        <v>0.1164987560972861</v>
       </c>
       <c r="E24">
-        <v>0.5437182872096358</v>
+        <v>0.1874884973939785</v>
       </c>
       <c r="F24">
-        <v>8.115474950214377</v>
+        <v>3.712264496113647</v>
       </c>
       <c r="G24">
-        <v>2.361481175823201</v>
+        <v>0.0006783430970665593</v>
       </c>
       <c r="H24">
-        <v>4.569485762458754</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.494396314317044</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.358749263040508</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.76721755140579</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>10.47720775578895</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.563507955149277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.277142225521771</v>
+        <v>0.3219822893761943</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2048289767183746</v>
+        <v>0.09176663407887276</v>
       </c>
       <c r="E25">
-        <v>0.4601468793099102</v>
+        <v>0.1533729322691215</v>
       </c>
       <c r="F25">
-        <v>6.080094683177748</v>
+        <v>2.841919256206552</v>
       </c>
       <c r="G25">
-        <v>1.76350557860934</v>
+        <v>0.0007126286249936177</v>
       </c>
       <c r="H25">
-        <v>3.415680154479901</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2.036981526342018</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2843896268673802</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.38021659127565</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>8.308320693715501</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.927954778114326</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2701051303332775</v>
+        <v>1.600722238680561</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07562036770721647</v>
+        <v>0.007645412286738207</v>
       </c>
       <c r="E2">
-        <v>0.130157177693274</v>
+        <v>0.3996070778909697</v>
       </c>
       <c r="F2">
-        <v>2.326251269063334</v>
+        <v>0.8987385416736799</v>
       </c>
       <c r="G2">
-        <v>0.0007372156630657088</v>
+        <v>0.0007528348657036418</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2135929663317837</v>
       </c>
       <c r="J2">
-        <v>0.2363095307131289</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>11.03227346773124</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.7848843275303921</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.379820366216947</v>
       </c>
       <c r="O2">
-        <v>1.558029913417144</v>
+        <v>2.711113877428801</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2356305721228438</v>
+        <v>1.397974649862107</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06545736299111127</v>
+        <v>0.006778212921012994</v>
       </c>
       <c r="E3">
-        <v>0.1152072022737443</v>
+        <v>0.3726262695223994</v>
       </c>
       <c r="F3">
-        <v>2.029286780433694</v>
+        <v>0.7870573609593379</v>
       </c>
       <c r="G3">
-        <v>0.0007538204726210053</v>
+        <v>0.0007577984365002566</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2334493849550122</v>
       </c>
       <c r="J3">
-        <v>0.2064960184953932</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>9.497748891554863</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.6816695896086884</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.321759377891581</v>
       </c>
       <c r="O3">
-        <v>1.348339670811768</v>
+        <v>2.378606775494717</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2147295861972367</v>
+        <v>1.273767562447574</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05948219272296029</v>
+        <v>0.006245387996887786</v>
       </c>
       <c r="E4">
-        <v>0.106316325120833</v>
+        <v>0.3560721811454854</v>
       </c>
       <c r="F4">
-        <v>1.866751929189036</v>
+        <v>0.719816874323115</v>
       </c>
       <c r="G4">
-        <v>0.0007640721428084289</v>
+        <v>0.0007609470194438047</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2464278799043692</v>
       </c>
       <c r="J4">
-        <v>0.1892235302139795</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>8.575179571778676</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.618520589449389</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.287111452175822</v>
       </c>
       <c r="O4">
-        <v>1.235023123514793</v>
+        <v>2.178775859983716</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.206270272472679</v>
+        <v>1.223208587027557</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0570995574531139</v>
+        <v>0.006028100783671775</v>
       </c>
       <c r="E5">
-        <v>0.1027537877121389</v>
+        <v>0.3493289773724015</v>
       </c>
       <c r="F5">
-        <v>1.804757450477609</v>
+        <v>0.6927175075803405</v>
       </c>
       <c r="G5">
-        <v>0.0007682742715321892</v>
+        <v>0.0007622560541649801</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2519083463622731</v>
       </c>
       <c r="J5">
-        <v>0.1824040772108049</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>8.203146695148348</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.5928320729727403</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.273236816381981</v>
       </c>
       <c r="O5">
-        <v>1.192145569605586</v>
+        <v>2.098325350402774</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2048688692825635</v>
+        <v>1.214816318548628</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05670671012260442</v>
+        <v>0.005992009159127676</v>
       </c>
       <c r="E6">
-        <v>0.1021655754459267</v>
+        <v>0.3482094302781817</v>
       </c>
       <c r="F6">
-        <v>1.794700089316208</v>
+        <v>0.6882349618291528</v>
       </c>
       <c r="G6">
-        <v>0.0007689737819142602</v>
+        <v>0.0007624750028608532</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2528297716743246</v>
       </c>
       <c r="J6">
-        <v>0.181283892858346</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>8.141581180340353</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.588568924779608</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.270947518914269</v>
       </c>
       <c r="O6">
-        <v>1.185209934780957</v>
+        <v>2.085022931808794</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2146152772283614</v>
+        <v>1.273085496051891</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05944986501248906</v>
+        <v>0.006242458301693787</v>
       </c>
       <c r="E7">
-        <v>0.1062680486796204</v>
+        <v>0.3559812292867406</v>
       </c>
       <c r="F7">
-        <v>1.865899570548493</v>
+        <v>0.7194502239243832</v>
       </c>
       <c r="G7">
-        <v>0.0007641287026279635</v>
+        <v>0.0007609645676622398</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2465010234758387</v>
       </c>
       <c r="J7">
-        <v>0.1891307217804368</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>8.570147550311447</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.6181739766496719</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.286923352519452</v>
       </c>
       <c r="O7">
-        <v>1.234432197624585</v>
+        <v>2.177687035595113</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.258157206100563</v>
+        <v>1.530747721949638</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.07205167060231332</v>
+        <v>0.007346434466711571</v>
       </c>
       <c r="E8">
-        <v>0.1249346892415382</v>
+        <v>0.3903012860298176</v>
       </c>
       <c r="F8">
-        <v>2.219260082588647</v>
+        <v>0.859933669863139</v>
       </c>
       <c r="G8">
-        <v>0.0007429361296363934</v>
+        <v>0.0007545257171864625</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2202724217584273</v>
       </c>
       <c r="J8">
-        <v>0.225788692454401</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>10.4984262617028</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.7492419946668747</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.359588514770081</v>
       </c>
       <c r="O8">
-        <v>1.482141938243956</v>
+        <v>2.595500567910079</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3461342465558488</v>
+        <v>2.038961357486357</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09969313371600208</v>
+        <v>0.009511980641498496</v>
       </c>
       <c r="E9">
-        <v>0.1645035946233229</v>
+        <v>0.4577282433171064</v>
       </c>
       <c r="F9">
-        <v>3.111454912020861</v>
+        <v>1.147610452344281</v>
       </c>
       <c r="G9">
-        <v>0.0007012389851105836</v>
+        <v>0.000742671903531944</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1753680253072378</v>
       </c>
       <c r="J9">
-        <v>0.3081741549691941</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>14.49290569366644</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.008619085114134</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.510390184914101</v>
       </c>
       <c r="O9">
-        <v>2.12350341597768</v>
+        <v>3.454364085506597</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4131583819787465</v>
+        <v>2.415236139141143</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.123359458633999</v>
+        <v>0.01110920274962979</v>
       </c>
       <c r="E10">
-        <v>0.1966273365513089</v>
+        <v>0.5074035658333216</v>
       </c>
       <c r="F10">
-        <v>3.967516834707396</v>
+        <v>1.368836718097313</v>
       </c>
       <c r="G10">
-        <v>0.0006694328426086445</v>
+        <v>0.0007343919651054109</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1467757065455508</v>
       </c>
       <c r="J10">
-        <v>0.3794002993519854</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>17.66338114321871</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.201483768416153</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.626789608879932</v>
       </c>
       <c r="O10">
-        <v>2.75188547558578</v>
+        <v>4.117276569586124</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4444050269932944</v>
+        <v>2.587308272616951</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1353972432259738</v>
+        <v>0.01183870879405191</v>
       </c>
       <c r="E11">
-        <v>0.2123175874463428</v>
+        <v>0.5300508906281038</v>
       </c>
       <c r="F11">
-        <v>4.427444365494836</v>
+        <v>1.472215790486786</v>
       </c>
       <c r="G11">
-        <v>0.0006543442479424177</v>
+        <v>0.0007307082472338688</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1348215506674322</v>
       </c>
       <c r="J11">
-        <v>0.4155767264425947</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>19.19193525893098</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.289934075867819</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.681089822491856</v>
       </c>
       <c r="O11">
-        <v>3.093143915266594</v>
+        <v>4.427684702213071</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4563725312395377</v>
+        <v>2.652620822678898</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1402077815957554</v>
+        <v>0.01211552161762697</v>
       </c>
       <c r="E12">
-        <v>0.2184651425047619</v>
+        <v>0.538635945473672</v>
       </c>
       <c r="F12">
-        <v>4.615156427090824</v>
+        <v>1.511811186230787</v>
       </c>
       <c r="G12">
-        <v>0.0006484957842351097</v>
+        <v>0.0007293243258005187</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1304549789818988</v>
       </c>
       <c r="J12">
-        <v>0.4300011450824428</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>19.78749112217832</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.323549740919304</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.701857316659016</v>
       </c>
       <c r="O12">
-        <v>3.233034756022548</v>
+        <v>4.546673915331439</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4537886060097236</v>
+        <v>2.638547428338939</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1391591139689581</v>
+        <v>0.01205587737936398</v>
       </c>
       <c r="E13">
-        <v>0.2171309619614306</v>
+        <v>0.5367865657582129</v>
       </c>
       <c r="F13">
-        <v>4.574057058036203</v>
+        <v>1.503262778860687</v>
       </c>
       <c r="G13">
-        <v>0.0006497622756694624</v>
+        <v>0.000729621902836519</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1313881263046587</v>
       </c>
       <c r="J13">
-        <v>0.4268586224679467</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>19.65839657523765</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.316304290055854</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.697375354487917</v>
       </c>
       <c r="O13">
-        <v>3.202377325156235</v>
+        <v>4.520980307660693</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4453867159586338</v>
+        <v>2.592678380668872</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1357874566272699</v>
+        <v>0.01186147013098449</v>
       </c>
       <c r="E14">
-        <v>0.2128188577833114</v>
+        <v>0.5307569956697549</v>
       </c>
       <c r="F14">
-        <v>4.442591485724222</v>
+        <v>1.475464024695</v>
       </c>
       <c r="G14">
-        <v>0.0006538661186248351</v>
+        <v>0.0007305941757208125</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1344590467639823</v>
       </c>
       <c r="J14">
-        <v>0.4167475896558699</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>19.24056608461649</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.2926971102072</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.682794198181767</v>
       </c>
       <c r="O14">
-        <v>3.104419669236933</v>
+        <v>4.437444025799891</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4402588140901429</v>
+        <v>2.564602840763712</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1337575889138094</v>
+        <v>0.01174246826862557</v>
       </c>
       <c r="E15">
-        <v>0.2102062483718328</v>
+        <v>0.5270649447026727</v>
       </c>
       <c r="F15">
-        <v>4.363954028811037</v>
+        <v>1.458496500493226</v>
       </c>
       <c r="G15">
-        <v>0.0006563606326340214</v>
+        <v>0.0007311911284806656</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1363612098424779</v>
       </c>
       <c r="J15">
-        <v>0.4106553801030657</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>18.98696717304136</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.278253428431242</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.673889882648979</v>
       </c>
       <c r="O15">
-        <v>3.045905213541118</v>
+        <v>4.386469123910899</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4111336522730369</v>
+        <v>2.404010889077028</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1226036633500627</v>
+        <v>0.01106159849839372</v>
       </c>
       <c r="E16">
-        <v>0.195627566219791</v>
+        <v>0.5059246597515497</v>
       </c>
       <c r="F16">
-        <v>3.939140270452981</v>
+        <v>1.362140311862433</v>
       </c>
       <c r="G16">
-        <v>0.0006704029299071618</v>
+        <v>0.0007346342976369824</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1475788636456917</v>
       </c>
       <c r="J16">
-        <v>0.377126093160939</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>17.56555692392641</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.195719277747457</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.623269051748565</v>
       </c>
       <c r="O16">
-        <v>2.73090553784408</v>
+        <v>4.097183056227379</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3934767077482064</v>
+        <v>2.305739760526592</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1161281313928555</v>
+        <v>0.01064475177113877</v>
       </c>
       <c r="E17">
-        <v>0.1869907472110128</v>
+        <v>0.4929697111451077</v>
       </c>
       <c r="F17">
-        <v>3.698628819037623</v>
+        <v>1.30376795696354</v>
       </c>
       <c r="G17">
-        <v>0.0006788312555109594</v>
+        <v>0.0007367671819820121</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1547362546432655</v>
       </c>
       <c r="J17">
-        <v>0.3576333483006664</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>16.71827986788924</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.145283157292795</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.592568135745239</v>
       </c>
       <c r="O17">
-        <v>2.553467003611217</v>
+        <v>3.922098952296437</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3833902478737912</v>
+        <v>2.249300316661959</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1125179474993629</v>
+        <v>0.01040525775163204</v>
       </c>
       <c r="E18">
-        <v>0.1821205515705486</v>
+        <v>0.4855229178357021</v>
       </c>
       <c r="F18">
-        <v>3.566666546589573</v>
+        <v>1.270448343739261</v>
       </c>
       <c r="G18">
-        <v>0.000683624158999295</v>
+        <v>0.00073800181824182</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1589515148472508</v>
       </c>
       <c r="J18">
-        <v>0.3467629995548549</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>16.23874166045181</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.116339744284943</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.575036095087498</v>
       </c>
       <c r="O18">
-        <v>2.456416370741692</v>
+        <v>3.822216637881809</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3799863696138743</v>
+        <v>2.230204571306842</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1113135509517846</v>
+        <v>0.01032421066432931</v>
       </c>
       <c r="E19">
-        <v>0.1804870571200468</v>
+        <v>0.4830022936219933</v>
       </c>
       <c r="F19">
-        <v>3.522997250086007</v>
+        <v>1.259209067519322</v>
       </c>
       <c r="G19">
-        <v>0.0006852386607299636</v>
+        <v>0.0007384212204945423</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1603953896183501</v>
       </c>
       <c r="J19">
-        <v>0.3431366187577396</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>16.07760922258234</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.106550815854661</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.569121415314726</v>
       </c>
       <c r="O19">
-        <v>2.424350485121636</v>
+        <v>3.78853427928658</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3953489751995249</v>
+        <v>2.316192088219452</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1168052091637932</v>
+        <v>0.01068909738817325</v>
       </c>
       <c r="E20">
-        <v>0.1878997511032665</v>
+        <v>0.4943483045424841</v>
       </c>
       <c r="F20">
-        <v>3.723551429252524</v>
+        <v>1.309955067681642</v>
       </c>
       <c r="G20">
-        <v>0.0006779399990948596</v>
+        <v>0.0007365393258021618</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1539640796012581</v>
       </c>
       <c r="J20">
-        <v>0.3596719494302505</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>16.80764101003751</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.150645196761559</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.59582314946033</v>
       </c>
       <c r="O20">
-        <v>2.571821115073746</v>
+        <v>3.940650739190346</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4478506415004659</v>
+        <v>2.60614690047845</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1367702561790267</v>
+        <v>0.01191855566930755</v>
       </c>
       <c r="E21">
-        <v>0.2140793296277224</v>
+        <v>0.5325277653107321</v>
       </c>
       <c r="F21">
-        <v>4.480804260956518</v>
+        <v>1.483616582852306</v>
       </c>
       <c r="G21">
-        <v>0.0006526648322160563</v>
+        <v>0.00073030830389004</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1335526217727359</v>
       </c>
       <c r="J21">
-        <v>0.4196959422915256</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>19.36279635755739</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.299627658350175</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.68707137626501</v>
       </c>
       <c r="O21">
-        <v>3.132875747583881</v>
+        <v>4.461940005236556</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.482969349737445</v>
+        <v>2.796550370630371</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1513445514448222</v>
+        <v>0.01272545211592657</v>
       </c>
       <c r="E22">
-        <v>0.2324303704215325</v>
+        <v>0.5575339165444646</v>
       </c>
       <c r="F22">
-        <v>5.057443262192777</v>
+        <v>1.599754084455171</v>
       </c>
       <c r="G22">
-        <v>0.0006353240800846698</v>
+        <v>0.0007262997482299083</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1211508790839683</v>
       </c>
       <c r="J22">
-        <v>0.4632988265762634</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>21.13363177121869</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.397714102141549</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.747909035988954</v>
       </c>
       <c r="O22">
-        <v>3.563904529056998</v>
+        <v>4.811143223399824</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4641412310002977</v>
+        <v>2.694837971306754</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1433950013035599</v>
+        <v>0.01229443413899034</v>
       </c>
       <c r="E23">
-        <v>0.2224998093505022</v>
+        <v>0.5441820259010726</v>
       </c>
       <c r="F23">
-        <v>4.740665389065242</v>
+        <v>1.537508771214235</v>
       </c>
       <c r="G23">
-        <v>0.0006446747954139834</v>
+        <v>0.0007284336696989537</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.127680997143517</v>
       </c>
       <c r="J23">
-        <v>0.439545168875128</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>20.17735935197402</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.34529124968526</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.715325004927394</v>
       </c>
       <c r="O23">
-        <v>3.326752083633636</v>
+        <v>4.623927072426795</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.394502323262131</v>
+        <v>2.311466412104039</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1164987560972861</v>
+        <v>0.01066904825721693</v>
       </c>
       <c r="E24">
-        <v>0.1874884973939785</v>
+        <v>0.4937250389282255</v>
       </c>
       <c r="F24">
-        <v>3.712264496113647</v>
+        <v>1.307157133150199</v>
       </c>
       <c r="G24">
-        <v>0.0006783430970665593</v>
+        <v>0.0007366423133460712</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1543128679361646</v>
       </c>
       <c r="J24">
-        <v>0.358749263040508</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>16.76721755140579</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1.148220855068928</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.594351190036036</v>
       </c>
       <c r="O24">
-        <v>2.563507955149277</v>
+        <v>3.932261072516383</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3219822893761943</v>
+        <v>1.901053030722835</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09176663407887276</v>
+        <v>0.008925521633543099</v>
       </c>
       <c r="E25">
-        <v>0.1533729322691215</v>
+        <v>0.4394687415012442</v>
       </c>
       <c r="F25">
-        <v>2.841919256206552</v>
+        <v>1.068241006416301</v>
       </c>
       <c r="G25">
-        <v>0.0007126286249936177</v>
+        <v>0.0007458001064411545</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1867750306539929</v>
       </c>
       <c r="J25">
-        <v>0.2843896268673802</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>13.38021659127565</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.9381135350000989</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.468651414048452</v>
       </c>
       <c r="O25">
-        <v>1.927954778114326</v>
+        <v>3.217017943284191</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.600722238680561</v>
+        <v>0.8933291878283285</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.007645412286738207</v>
+        <v>0.003258175604951674</v>
       </c>
       <c r="E2">
-        <v>0.3996070778909697</v>
+        <v>0.3575102998598396</v>
       </c>
       <c r="F2">
-        <v>0.8987385416736799</v>
+        <v>0.5684327367567477</v>
       </c>
       <c r="G2">
-        <v>0.0007528348657036418</v>
+        <v>0.002362791442131427</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2135929663317837</v>
+        <v>0.6596824315284011</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.7848843275303921</v>
+        <v>0.2991135008363699</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.379820366216947</v>
+        <v>1.362506658411533</v>
       </c>
       <c r="O2">
-        <v>2.711113877428801</v>
+        <v>1.815699715449085</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.397974649862107</v>
+        <v>0.8338038650850024</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.006778212921012994</v>
+        <v>0.002973824538699432</v>
       </c>
       <c r="E3">
-        <v>0.3726262695223994</v>
+        <v>0.3495491793288181</v>
       </c>
       <c r="F3">
-        <v>0.7870573609593379</v>
+        <v>0.5432571050713761</v>
       </c>
       <c r="G3">
-        <v>0.0007577984365002566</v>
+        <v>0.002366191338576264</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2334493849550122</v>
+        <v>0.6718803821831688</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6816695896086884</v>
+        <v>0.2687331502148425</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.321759377891581</v>
+        <v>1.346805121431061</v>
       </c>
       <c r="O3">
-        <v>2.378606775494717</v>
+        <v>1.743156897276435</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.273767562447574</v>
+        <v>0.7974121339820499</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.006245387996887786</v>
+        <v>0.002798406563439215</v>
       </c>
       <c r="E4">
-        <v>0.3560721811454854</v>
+        <v>0.344681670660556</v>
       </c>
       <c r="F4">
-        <v>0.719816874323115</v>
+        <v>0.5282057394349664</v>
       </c>
       <c r="G4">
-        <v>0.0007609470194438047</v>
+        <v>0.002368392553594493</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2464278799043692</v>
+        <v>0.6798051901712682</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.618520589449389</v>
+        <v>0.2501100684635418</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.287111452175822</v>
+        <v>1.337671287969386</v>
       </c>
       <c r="O4">
-        <v>2.178775859983716</v>
+        <v>1.699953024009289</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.223208587027557</v>
+        <v>0.7826228868306089</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.006028100783671775</v>
+        <v>0.002726719813987089</v>
       </c>
       <c r="E5">
-        <v>0.3493289773724015</v>
+        <v>0.342703613017747</v>
       </c>
       <c r="F5">
-        <v>0.6927175075803405</v>
+        <v>0.5221741110359801</v>
       </c>
       <c r="G5">
-        <v>0.0007622560541649801</v>
+        <v>0.002369318237647792</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2519083463622731</v>
+        <v>0.6831439808311204</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5928320729727403</v>
+        <v>0.2425290447543915</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.273236816381981</v>
+        <v>1.334077556814364</v>
       </c>
       <c r="O5">
-        <v>2.098325350402774</v>
+        <v>1.682682364823364</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.214816318548628</v>
+        <v>0.7801696354465832</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005992009159127676</v>
+        <v>0.002714804201504606</v>
       </c>
       <c r="E6">
-        <v>0.3482094302781817</v>
+        <v>0.3423754985245964</v>
       </c>
       <c r="F6">
-        <v>0.6882349618291528</v>
+        <v>0.5211787107052857</v>
       </c>
       <c r="G6">
-        <v>0.0007624750028608532</v>
+        <v>0.002369473681040755</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2528297716743246</v>
+        <v>0.6837049878778256</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.588568924779608</v>
+        <v>0.2412707169120551</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.270947518914269</v>
+        <v>1.333488600873494</v>
       </c>
       <c r="O6">
-        <v>2.085022931808794</v>
+        <v>1.67983480218038</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.273085496051891</v>
+        <v>0.7972125147449276</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006242458301693787</v>
+        <v>0.002797440584384248</v>
       </c>
       <c r="E7">
-        <v>0.3559812292867406</v>
+        <v>0.344654971249696</v>
       </c>
       <c r="F7">
-        <v>0.7194502239243832</v>
+        <v>0.5281239825070543</v>
       </c>
       <c r="G7">
-        <v>0.0007609645676622398</v>
+        <v>0.002368404921516668</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2465010234758387</v>
+        <v>0.6798497755419094</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6181739766496719</v>
+        <v>0.2500077951423947</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.286923352519452</v>
+        <v>1.337622300652598</v>
       </c>
       <c r="O7">
-        <v>2.177687035595113</v>
+        <v>1.699718749838809</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.530747721949638</v>
+        <v>0.8727729500101873</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.007346434466711571</v>
+        <v>0.003160305559596566</v>
       </c>
       <c r="E8">
-        <v>0.3903012860298176</v>
+        <v>0.3547611956327259</v>
       </c>
       <c r="F8">
-        <v>0.859933669863139</v>
+        <v>0.5596675983142347</v>
       </c>
       <c r="G8">
-        <v>0.0007545257171864625</v>
+        <v>0.002363940188982429</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2202724217584273</v>
+        <v>0.6637979138496867</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.7492419946668747</v>
+        <v>0.2886322068806066</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.359588514770081</v>
+        <v>1.356988074152355</v>
       </c>
       <c r="O8">
-        <v>2.595500567910079</v>
+        <v>1.790408616347179</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.038961357486357</v>
+        <v>1.022148504779409</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009511980641498496</v>
+        <v>0.003865148055133716</v>
       </c>
       <c r="E9">
-        <v>0.4577282433171064</v>
+        <v>0.3747312017924429</v>
       </c>
       <c r="F9">
-        <v>1.147610452344281</v>
+        <v>0.6247684301586389</v>
       </c>
       <c r="G9">
-        <v>0.000742671903531944</v>
+        <v>0.002356082679966381</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1753680253072378</v>
+        <v>0.6357762637821343</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.008619085114134</v>
+        <v>0.364605843674326</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.510390184914101</v>
+        <v>1.398950876274995</v>
       </c>
       <c r="O9">
-        <v>3.454364085506597</v>
+        <v>1.978926762096137</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.415236139141143</v>
+        <v>1.132578952215226</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01110920274962979</v>
+        <v>0.004378689994993579</v>
       </c>
       <c r="E10">
-        <v>0.5074035658333216</v>
+        <v>0.3894808207066518</v>
       </c>
       <c r="F10">
-        <v>1.368836718097313</v>
+        <v>0.6746059732758738</v>
       </c>
       <c r="G10">
-        <v>0.0007343919651054109</v>
+        <v>0.002350851423885198</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1467757065455508</v>
+        <v>0.6172987357268347</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.201483768416153</v>
+        <v>0.4205550790261725</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.626789608879932</v>
+        <v>1.432167830464067</v>
       </c>
       <c r="O10">
-        <v>4.117276569586124</v>
+        <v>2.124040777512278</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.587308272616951</v>
+        <v>1.182955657781235</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01183870879405191</v>
+        <v>0.004611339750130838</v>
       </c>
       <c r="E11">
-        <v>0.5300508906281038</v>
+        <v>0.3962046144363924</v>
       </c>
       <c r="F11">
-        <v>1.472215790486786</v>
+        <v>0.6977212335151819</v>
       </c>
       <c r="G11">
-        <v>0.0007307082472338688</v>
+        <v>0.002348587997779721</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1348215506674322</v>
+        <v>0.6093516389756649</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.289934075867819</v>
+        <v>0.4460346869241789</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.681089822491856</v>
+        <v>1.44778860251688</v>
       </c>
       <c r="O11">
-        <v>4.427684702213071</v>
+        <v>2.191514966488853</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.652620822678898</v>
+        <v>1.202051283732715</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01211552161762697</v>
+        <v>0.004699295376568102</v>
       </c>
       <c r="E12">
-        <v>0.538635945473672</v>
+        <v>0.3987524847842394</v>
       </c>
       <c r="F12">
-        <v>1.511811186230787</v>
+        <v>0.7065386446418813</v>
       </c>
       <c r="G12">
-        <v>0.0007293243258005187</v>
+        <v>0.002347747528891025</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1304549789818988</v>
+        <v>0.6064082778525703</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.323549740919304</v>
+        <v>0.4556869110457455</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.701857316659016</v>
+        <v>1.453776338742557</v>
       </c>
       <c r="O12">
-        <v>4.546673915331439</v>
+        <v>2.217277269365013</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.638547428338939</v>
+        <v>1.197937871362797</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01205587737936398</v>
+        <v>0.00468035903776709</v>
       </c>
       <c r="E13">
-        <v>0.5367865657582129</v>
+        <v>0.3982036840132679</v>
       </c>
       <c r="F13">
-        <v>1.503262778860687</v>
+        <v>0.704636798448476</v>
       </c>
       <c r="G13">
-        <v>0.000729621902836519</v>
+        <v>0.002347927800153212</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1313881263046587</v>
+        <v>0.6070392447723502</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.316304290055854</v>
+        <v>0.4536079756005904</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.697375354487917</v>
+        <v>1.452483562553709</v>
       </c>
       <c r="O13">
-        <v>4.520980307660693</v>
+        <v>2.211719480321676</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.592678380668872</v>
+        <v>1.184526291637837</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01186147013098449</v>
+        <v>0.004618578824452158</v>
       </c>
       <c r="E14">
-        <v>0.5307569956697549</v>
+        <v>0.3964141966778882</v>
       </c>
       <c r="F14">
-        <v>1.475464024695</v>
+        <v>0.6984453594121192</v>
       </c>
       <c r="G14">
-        <v>0.0007305941757208125</v>
+        <v>0.002348518518776793</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1344590467639823</v>
+        <v>0.609108162868332</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.2926971102072</v>
+        <v>0.446828710240311</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.682794198181767</v>
+        <v>1.448279769398937</v>
       </c>
       <c r="O14">
-        <v>4.437444025799891</v>
+        <v>2.193630205245938</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.564602840763712</v>
+        <v>1.176313756652632</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01174246826862557</v>
+        <v>0.004580717777802334</v>
       </c>
       <c r="E15">
-        <v>0.5270649447026727</v>
+        <v>0.39531829811893</v>
       </c>
       <c r="F15">
-        <v>1.458496500493226</v>
+        <v>0.6946612900152616</v>
       </c>
       <c r="G15">
-        <v>0.0007311911284806656</v>
+        <v>0.002348882516014096</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1363612098424779</v>
+        <v>0.6103840375535228</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.278253428431242</v>
+        <v>0.442676678490642</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.673889882648979</v>
+        <v>1.445714238960136</v>
       </c>
       <c r="O15">
-        <v>4.386469123910899</v>
+        <v>2.182577553626686</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.404010889077028</v>
+        <v>1.129289452050557</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01106159849839372</v>
+        <v>0.004363465953407086</v>
       </c>
       <c r="E16">
-        <v>0.5059246597515497</v>
+        <v>0.3890416621477328</v>
       </c>
       <c r="F16">
-        <v>1.362140311862433</v>
+        <v>0.6731042975043522</v>
       </c>
       <c r="G16">
-        <v>0.0007346342976369824</v>
+        <v>0.002351001677390524</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1475788636456917</v>
+        <v>0.6178273313418995</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.195719277747457</v>
+        <v>0.4188904580894643</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.623269051748565</v>
+        <v>1.431157167706772</v>
       </c>
       <c r="O16">
-        <v>4.097183056227379</v>
+        <v>2.119660683150414</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.305739760526592</v>
+        <v>1.100476864659583</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01064475177113877</v>
+        <v>0.004229938548498069</v>
       </c>
       <c r="E17">
-        <v>0.4929697111451077</v>
+        <v>0.3851945410606987</v>
       </c>
       <c r="F17">
-        <v>1.30376795696354</v>
+        <v>0.6599937121830379</v>
       </c>
       <c r="G17">
-        <v>0.0007367671819820121</v>
+        <v>0.002352331442459316</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1547362546432655</v>
+        <v>0.6225110432834264</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.145283157292795</v>
+        <v>0.404305288522977</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.592568135745239</v>
+        <v>1.422356925404102</v>
       </c>
       <c r="O17">
-        <v>3.922098952296437</v>
+        <v>2.081438288427364</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.249300316661959</v>
+        <v>1.083918005436999</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01040525775163204</v>
+        <v>0.004153046783663683</v>
       </c>
       <c r="E18">
-        <v>0.4855229178357021</v>
+        <v>0.3829831263653105</v>
       </c>
       <c r="F18">
-        <v>1.270448343739261</v>
+        <v>0.6524946136892424</v>
       </c>
       <c r="G18">
-        <v>0.00073800181824182</v>
+        <v>0.002353107239787286</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1589515148472508</v>
+        <v>0.6252481328301858</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.116339744284943</v>
+        <v>0.3959189447804476</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.575036095087498</v>
+        <v>1.417343334426306</v>
       </c>
       <c r="O18">
-        <v>3.822216637881809</v>
+        <v>2.059591232195316</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.230204571306842</v>
+        <v>1.078313796654754</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01032421066432931</v>
+        <v>0.004126997201808535</v>
       </c>
       <c r="E19">
-        <v>0.4830022936219933</v>
+        <v>0.3822346204013627</v>
       </c>
       <c r="F19">
-        <v>1.259209067519322</v>
+        <v>0.6499627106418302</v>
       </c>
       <c r="G19">
-        <v>0.0007384212204945423</v>
+        <v>0.002353371794791323</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1603953896183501</v>
+        <v>0.6261822706724077</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.106550815854661</v>
+        <v>0.3930799413309956</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.569121415314726</v>
+        <v>1.415654102640332</v>
       </c>
       <c r="O19">
-        <v>3.78853427928658</v>
+        <v>2.052217766026388</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.316192088219452</v>
+        <v>1.103542638264855</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01068909738817325</v>
+        <v>0.004244162156837206</v>
       </c>
       <c r="E20">
-        <v>0.4943483045424841</v>
+        <v>0.385603936480571</v>
       </c>
       <c r="F20">
-        <v>1.309955067681642</v>
+        <v>0.6613850316226717</v>
       </c>
       <c r="G20">
-        <v>0.0007365393258021618</v>
+        <v>0.002352188753948284</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1539640796012581</v>
+        <v>0.6220079882780825</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.150645196761559</v>
+        <v>0.4058576321725411</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.59582314946033</v>
+        <v>1.423288756967935</v>
       </c>
       <c r="O20">
-        <v>3.940650739190346</v>
+        <v>2.085492892980028</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.60614690047845</v>
+        <v>1.188465090450165</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01191855566930755</v>
+        <v>0.00463672911521229</v>
       </c>
       <c r="E21">
-        <v>0.5325277653107321</v>
+        <v>0.396939768426833</v>
       </c>
       <c r="F21">
-        <v>1.483616582852306</v>
+        <v>0.7002621911298661</v>
       </c>
       <c r="G21">
-        <v>0.00073030830389004</v>
+        <v>0.002348344559449878</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1335526217727359</v>
+        <v>0.6084986784967831</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.299627658350175</v>
+        <v>0.4488198487811417</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.68707137626501</v>
+        <v>1.449512564985099</v>
       </c>
       <c r="O21">
-        <v>4.461940005236556</v>
+        <v>2.198937719961918</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.796550370630371</v>
+        <v>1.24407733981127</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01272545211592657</v>
+        <v>0.004892453791033091</v>
       </c>
       <c r="E22">
-        <v>0.5575339165444646</v>
+        <v>0.4043582445300089</v>
       </c>
       <c r="F22">
-        <v>1.599754084455171</v>
+        <v>0.7260448101941961</v>
       </c>
       <c r="G22">
-        <v>0.0007262997482299083</v>
+        <v>0.002345929118368359</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1211508790839683</v>
+        <v>0.6000545000748431</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.397714102141549</v>
+        <v>0.4769192379187928</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.747909035988954</v>
+        <v>1.467073458369271</v>
       </c>
       <c r="O22">
-        <v>4.811143223399824</v>
+        <v>2.274312593796139</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.694837971306754</v>
+        <v>1.214386339884697</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01229443413899034</v>
+        <v>0.004756047365606975</v>
       </c>
       <c r="E23">
-        <v>0.5441820259010726</v>
+        <v>0.4003980661464723</v>
       </c>
       <c r="F23">
-        <v>1.537508771214235</v>
+        <v>0.7122497978454021</v>
       </c>
       <c r="G23">
-        <v>0.0007284336696989537</v>
+        <v>0.002347209439674291</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.127680997143517</v>
+        <v>0.6045260585002199</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.34529124968526</v>
+        <v>0.4619202599506309</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.715325004927394</v>
+        <v>1.457662543336141</v>
       </c>
       <c r="O23">
-        <v>4.623927072426795</v>
+        <v>2.233970473640568</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.311466412104039</v>
+        <v>1.102156583598344</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01066904825721693</v>
+        <v>0.004237732052761345</v>
       </c>
       <c r="E24">
-        <v>0.4937250389282255</v>
+        <v>0.3854188477116338</v>
       </c>
       <c r="F24">
-        <v>1.307157133150199</v>
+        <v>0.6607558966652647</v>
       </c>
       <c r="G24">
-        <v>0.0007366423133460712</v>
+        <v>0.002352253228298657</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1543128679361646</v>
+        <v>0.6222352812718877</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.148220855068928</v>
+        <v>0.4051558211180009</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.594351190036036</v>
+        <v>1.422867333231522</v>
       </c>
       <c r="O24">
-        <v>3.932261072516383</v>
+        <v>2.083659409168263</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.901053030722835</v>
+        <v>0.98161482115475</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.008925521633543099</v>
+        <v>0.003675211344010165</v>
       </c>
       <c r="E25">
-        <v>0.4394687415012442</v>
+        <v>0.3693140804043082</v>
       </c>
       <c r="F25">
-        <v>1.068241006416301</v>
+        <v>0.6068065047297324</v>
       </c>
       <c r="G25">
-        <v>0.0007458001064411545</v>
+        <v>0.002358112816098878</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1867750306539929</v>
+        <v>0.6429865542096203</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.9381135350000989</v>
+        <v>0.3440291964822961</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.468651414048452</v>
+        <v>1.387176561929522</v>
       </c>
       <c r="O25">
-        <v>3.217017943284191</v>
+        <v>1.926774207316839</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8933291878283285</v>
+        <v>1.600722238680561</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.003258175604951674</v>
+        <v>0.007645412286610309</v>
       </c>
       <c r="E2">
-        <v>0.3575102998598396</v>
+        <v>0.3996070778909697</v>
       </c>
       <c r="F2">
-        <v>0.5684327367567477</v>
+        <v>0.8987385416736799</v>
       </c>
       <c r="G2">
-        <v>0.002362791442131427</v>
+        <v>0.0007528348657037801</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6596824315284011</v>
+        <v>0.2135929663317988</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2991135008363699</v>
+        <v>0.7848843275303352</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.362506658411533</v>
+        <v>1.379820366217004</v>
       </c>
       <c r="O2">
-        <v>1.815699715449085</v>
+        <v>2.711113877428744</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8338038650850024</v>
+        <v>1.397974649862078</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.002973824538699432</v>
+        <v>0.006778212920899307</v>
       </c>
       <c r="E3">
-        <v>0.3495491793288181</v>
+        <v>0.3726262695223923</v>
       </c>
       <c r="F3">
-        <v>0.5432571050713761</v>
+        <v>0.7870573609593237</v>
       </c>
       <c r="G3">
-        <v>0.002366191338576264</v>
+        <v>0.0007577984364705448</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6718803821831688</v>
+        <v>0.2334493849550165</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2687331502148425</v>
+        <v>0.6816695896087168</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.346805121431061</v>
+        <v>1.321759377891595</v>
       </c>
       <c r="O3">
-        <v>1.743156897276435</v>
+        <v>2.378606775494688</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7974121339820499</v>
+        <v>1.273767562447659</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.002798406563439215</v>
+        <v>0.006245387996996143</v>
       </c>
       <c r="E4">
-        <v>0.344681670660556</v>
+        <v>0.3560721811454286</v>
       </c>
       <c r="F4">
-        <v>0.5282057394349664</v>
+        <v>0.7198168743230866</v>
       </c>
       <c r="G4">
-        <v>0.002368392553594493</v>
+        <v>0.0007609470194438602</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6798051901712682</v>
+        <v>0.2464278799043678</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2501100684635418</v>
+        <v>0.6185205894493748</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.337671287969386</v>
+        <v>1.287111452175864</v>
       </c>
       <c r="O4">
-        <v>1.699953024009289</v>
+        <v>2.178775859983716</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7826228868306089</v>
+        <v>1.223208587027557</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.002726719813987089</v>
+        <v>0.006028100783671775</v>
       </c>
       <c r="E5">
-        <v>0.342703613017747</v>
+        <v>0.3493289773724015</v>
       </c>
       <c r="F5">
-        <v>0.5221741110359801</v>
+        <v>0.6927175075803405</v>
       </c>
       <c r="G5">
-        <v>0.002369318237647792</v>
+        <v>0.000762256054164937</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6831439808311204</v>
+        <v>0.2519083463622752</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2425290447543915</v>
+        <v>0.5928320729728114</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.334077556814364</v>
+        <v>1.273236816381981</v>
       </c>
       <c r="O5">
-        <v>1.682682364823364</v>
+        <v>2.098325350402774</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7801696354465832</v>
+        <v>1.214816318548884</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.002714804201504606</v>
+        <v>0.005992009159184519</v>
       </c>
       <c r="E6">
-        <v>0.3423754985245964</v>
+        <v>0.3482094302781817</v>
       </c>
       <c r="F6">
-        <v>0.5211787107052857</v>
+        <v>0.6882349618291528</v>
       </c>
       <c r="G6">
-        <v>0.002369473681040755</v>
+        <v>0.0007624750028607133</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6837049878778256</v>
+        <v>0.2528297716743202</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2412707169120551</v>
+        <v>0.588568924779679</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.333488600873494</v>
+        <v>1.270947518914326</v>
       </c>
       <c r="O6">
-        <v>1.67983480218038</v>
+        <v>2.085022931808794</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7972125147449276</v>
+        <v>1.273085496051664</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.002797440584384248</v>
+        <v>0.006242458301862541</v>
       </c>
       <c r="E7">
-        <v>0.344654971249696</v>
+        <v>0.3559812292867477</v>
       </c>
       <c r="F7">
-        <v>0.5281239825070543</v>
+        <v>0.7194502239243832</v>
       </c>
       <c r="G7">
-        <v>0.002368404921516668</v>
+        <v>0.0007609645676913275</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6798497755419094</v>
+        <v>0.2465010234758239</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2500077951423947</v>
+        <v>0.6181739766497998</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.337622300652598</v>
+        <v>1.286923352519509</v>
       </c>
       <c r="O7">
-        <v>1.699718749838809</v>
+        <v>2.17768703559517</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8727729500101873</v>
+        <v>1.530747721949751</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.003160305559596566</v>
+        <v>0.007346434466708018</v>
       </c>
       <c r="E8">
-        <v>0.3547611956327259</v>
+        <v>0.390301286029846</v>
       </c>
       <c r="F8">
-        <v>0.5596675983142347</v>
+        <v>0.8599336698631674</v>
       </c>
       <c r="G8">
-        <v>0.002363940188982429</v>
+        <v>0.0007545257171573536</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6637979138496867</v>
+        <v>0.2202724217584108</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2886322068806066</v>
+        <v>0.7492419946668463</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.356988074152355</v>
+        <v>1.359588514770067</v>
       </c>
       <c r="O8">
-        <v>1.790408616347179</v>
+        <v>2.595500567910108</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.022148504779409</v>
+        <v>2.038961357486585</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.003865148055133716</v>
+        <v>0.009511980641569551</v>
       </c>
       <c r="E9">
-        <v>0.3747312017924429</v>
+        <v>0.4577282433171348</v>
       </c>
       <c r="F9">
-        <v>0.6247684301586389</v>
+        <v>1.147610452344267</v>
       </c>
       <c r="G9">
-        <v>0.002356082679966381</v>
+        <v>0.000742671903495188</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6357762637821343</v>
+        <v>0.175368025307219</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.364605843674326</v>
+        <v>1.008619085114049</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.398950876274995</v>
+        <v>1.510390184914158</v>
       </c>
       <c r="O9">
-        <v>1.978926762096137</v>
+        <v>3.454364085506597</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.132578952215226</v>
+        <v>2.415236139141484</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.004378689994993579</v>
+        <v>0.01110920274962979</v>
       </c>
       <c r="E10">
-        <v>0.3894808207066518</v>
+        <v>0.5074035658333216</v>
       </c>
       <c r="F10">
-        <v>0.6746059732758738</v>
+        <v>1.368836718097299</v>
       </c>
       <c r="G10">
-        <v>0.002350851423885198</v>
+        <v>0.0007343919651999784</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6172987357268347</v>
+        <v>0.1467757065455512</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4205550790261725</v>
+        <v>1.201483768416239</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.432167830464067</v>
+        <v>1.62678960887996</v>
       </c>
       <c r="O10">
-        <v>2.124040777512278</v>
+        <v>4.117276569586124</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.182955657781235</v>
+        <v>2.587308272617065</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.004611339750130838</v>
+        <v>0.01183870879424376</v>
       </c>
       <c r="E11">
-        <v>0.3962046144363924</v>
+        <v>0.5300508906280683</v>
       </c>
       <c r="F11">
-        <v>0.6977212335151819</v>
+        <v>1.472215790486786</v>
       </c>
       <c r="G11">
-        <v>0.002348587997779721</v>
+        <v>0.0007307082472338024</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6093516389756649</v>
+        <v>0.1348215506674328</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4460346869241789</v>
+        <v>1.289934075867762</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.44778860251688</v>
+        <v>1.681089822491913</v>
       </c>
       <c r="O11">
-        <v>2.191514966488853</v>
+        <v>4.427684702213128</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.202051283732715</v>
+        <v>2.652620822678671</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.004699295376568102</v>
+        <v>0.01211552161762697</v>
       </c>
       <c r="E12">
-        <v>0.3987524847842394</v>
+        <v>0.5386359454736507</v>
       </c>
       <c r="F12">
-        <v>0.7065386446418813</v>
+        <v>1.511811186230773</v>
       </c>
       <c r="G12">
-        <v>0.002347747528891025</v>
+        <v>0.000729324325841274</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6064082778525703</v>
+        <v>0.1304549789818996</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4556869110457455</v>
+        <v>1.323549740919191</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.453776338742557</v>
+        <v>1.701857316659044</v>
       </c>
       <c r="O12">
-        <v>2.217277269365013</v>
+        <v>4.546673915331439</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.197937871362797</v>
+        <v>2.638547428338995</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.00468035903776709</v>
+        <v>0.01205587737925029</v>
       </c>
       <c r="E13">
-        <v>0.3982036840132679</v>
+        <v>0.5367865657581987</v>
       </c>
       <c r="F13">
-        <v>0.704636798448476</v>
+        <v>1.503262778860687</v>
       </c>
       <c r="G13">
-        <v>0.002347927800153212</v>
+        <v>0.0007296219028638752</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6070392447723502</v>
+        <v>0.1313881263046603</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4536079756005904</v>
+        <v>1.316304290055882</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.452483562553709</v>
+        <v>1.697375354487974</v>
       </c>
       <c r="O13">
-        <v>2.211719480321676</v>
+        <v>4.520980307660693</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.184526291637837</v>
+        <v>2.59267838066927</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.004618578824452158</v>
+        <v>0.01186147013079974</v>
       </c>
       <c r="E14">
-        <v>0.3964141966778882</v>
+        <v>0.5307569956697407</v>
       </c>
       <c r="F14">
-        <v>0.6984453594121192</v>
+        <v>1.475464024694986</v>
       </c>
       <c r="G14">
-        <v>0.002348518518776793</v>
+        <v>0.0007305941756809555</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.609108162868332</v>
+        <v>0.1344590467639838</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.446828710240311</v>
+        <v>1.292697110207058</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.448279769398937</v>
+        <v>1.682794198181767</v>
       </c>
       <c r="O14">
-        <v>2.193630205245938</v>
+        <v>4.437444025799891</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.176313756652632</v>
+        <v>2.564602840763769</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.004580717777802334</v>
+        <v>0.01174246826873215</v>
       </c>
       <c r="E15">
-        <v>0.39531829811893</v>
+        <v>0.5270649447026727</v>
       </c>
       <c r="F15">
-        <v>0.6946612900152616</v>
+        <v>1.458496500493226</v>
       </c>
       <c r="G15">
-        <v>0.002348882516014096</v>
+        <v>0.0007311911284800025</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6103840375535228</v>
+        <v>0.1363612098424622</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.442676678490642</v>
+        <v>1.278253428431185</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.445714238960136</v>
+        <v>1.673889882649036</v>
       </c>
       <c r="O15">
-        <v>2.182577553626686</v>
+        <v>4.386469123910956</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.129289452050557</v>
+        <v>2.404010889077369</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.004363465953407086</v>
+        <v>0.01106159849839372</v>
       </c>
       <c r="E16">
-        <v>0.3890416621477328</v>
+        <v>0.5059246597515568</v>
       </c>
       <c r="F16">
-        <v>0.6731042975043522</v>
+        <v>1.362140311862419</v>
       </c>
       <c r="G16">
-        <v>0.002351001677390524</v>
+        <v>0.0007346342976761102</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6178273313418995</v>
+        <v>0.1475788636456905</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4188904580894643</v>
+        <v>1.195719277747429</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.431157167706772</v>
+        <v>1.623269051748593</v>
       </c>
       <c r="O16">
-        <v>2.119660683150414</v>
+        <v>4.097183056227436</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.100476864659583</v>
+        <v>2.305739760526592</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.004229938548498069</v>
+        <v>0.01064475177102864</v>
       </c>
       <c r="E17">
-        <v>0.3851945410606987</v>
+        <v>0.4929697111451219</v>
       </c>
       <c r="F17">
-        <v>0.6599937121830379</v>
+        <v>1.303767956963554</v>
       </c>
       <c r="G17">
-        <v>0.002352331442459316</v>
+        <v>0.0007367671820103618</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6225110432834264</v>
+        <v>0.1547362546432658</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.404305288522977</v>
+        <v>1.145283157292766</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.422356925404102</v>
+        <v>1.592568135745211</v>
       </c>
       <c r="O17">
-        <v>2.081438288427364</v>
+        <v>3.922098952296381</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.083918005436999</v>
+        <v>2.249300316661731</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.004153046783663683</v>
+        <v>0.01040525775182388</v>
       </c>
       <c r="E18">
-        <v>0.3829831263653105</v>
+        <v>0.4855229178357234</v>
       </c>
       <c r="F18">
-        <v>0.6524946136892424</v>
+        <v>1.270448343739261</v>
       </c>
       <c r="G18">
-        <v>0.002353107239787286</v>
+        <v>0.0007380018182702198</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6252481328301858</v>
+        <v>0.1589515148472512</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3959189447804476</v>
+        <v>1.116339744284801</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.417343334426306</v>
+        <v>1.575036095087498</v>
       </c>
       <c r="O18">
-        <v>2.059591232195316</v>
+        <v>3.822216637881809</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.078313796654754</v>
+        <v>2.230204571306729</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.004126997201808535</v>
+        <v>0.010324210664443</v>
       </c>
       <c r="E19">
-        <v>0.3822346204013627</v>
+        <v>0.4830022936219436</v>
       </c>
       <c r="F19">
-        <v>0.6499627106418302</v>
+        <v>1.259209067519308</v>
       </c>
       <c r="G19">
-        <v>0.002353371794791323</v>
+        <v>0.0007384212204570208</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6261822706724077</v>
+        <v>0.1603953896183645</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3930799413309956</v>
+        <v>1.106550815854774</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.415654102640332</v>
+        <v>1.56912141531474</v>
       </c>
       <c r="O19">
-        <v>2.052217766026388</v>
+        <v>3.78853427928658</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.103542638264855</v>
+        <v>2.316192088219452</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.004244162156837206</v>
+        <v>0.01068909738828339</v>
       </c>
       <c r="E20">
-        <v>0.385603936480571</v>
+        <v>0.4943483045424841</v>
       </c>
       <c r="F20">
-        <v>0.6613850316226717</v>
+        <v>1.309955067681642</v>
       </c>
       <c r="G20">
-        <v>0.002352188753948284</v>
+        <v>0.0007365393258121906</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6220079882780825</v>
+        <v>0.153964079601244</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4058576321725411</v>
+        <v>1.150645196761559</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.423288756967935</v>
+        <v>1.595823149460472</v>
       </c>
       <c r="O20">
-        <v>2.085492892980028</v>
+        <v>3.940650739190289</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.188465090450165</v>
+        <v>2.606146900478677</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.00463672911521229</v>
+        <v>0.01191855566927913</v>
       </c>
       <c r="E21">
-        <v>0.396939768426833</v>
+        <v>0.5325277653107179</v>
       </c>
       <c r="F21">
-        <v>0.7002621911298661</v>
+        <v>1.483616582852292</v>
       </c>
       <c r="G21">
-        <v>0.002348344559449878</v>
+        <v>0.0007303083039179675</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6084986784967831</v>
+        <v>0.1335526217727336</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4488198487811417</v>
+        <v>1.299627658350005</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.449512564985099</v>
+        <v>1.68707137626501</v>
       </c>
       <c r="O21">
-        <v>2.198937719961918</v>
+        <v>4.461940005236556</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.24407733981127</v>
+        <v>2.796550370630541</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.004892453791033091</v>
+        <v>0.01272545211583775</v>
       </c>
       <c r="E22">
-        <v>0.4043582445300089</v>
+        <v>0.5575339165444646</v>
       </c>
       <c r="F22">
-        <v>0.7260448101941961</v>
+        <v>1.599754084455185</v>
       </c>
       <c r="G22">
-        <v>0.002345929118368359</v>
+        <v>0.0007262997482566647</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6000545000748431</v>
+        <v>0.1211508790839812</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4769192379187928</v>
+        <v>1.397714102141606</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.467073458369271</v>
+        <v>1.747909035988926</v>
       </c>
       <c r="O22">
-        <v>2.274312593796139</v>
+        <v>4.811143223399824</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.214386339884697</v>
+        <v>2.694837971307095</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.004756047365606975</v>
+        <v>0.01229443413888376</v>
       </c>
       <c r="E23">
-        <v>0.4003980661464723</v>
+        <v>0.5441820259010797</v>
       </c>
       <c r="F23">
-        <v>0.7122497978454021</v>
+        <v>1.537508771214206</v>
       </c>
       <c r="G23">
-        <v>0.002347209439674291</v>
+        <v>0.0007284336696715907</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6045260585002199</v>
+        <v>0.1276809971435202</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4619202599506309</v>
+        <v>1.345291249685346</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.457662543336141</v>
+        <v>1.715325004927394</v>
       </c>
       <c r="O23">
-        <v>2.233970473640568</v>
+        <v>4.623927072426852</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.102156583598344</v>
+        <v>2.31146641210438</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.004237732052761345</v>
+        <v>0.01066904825713522</v>
       </c>
       <c r="E24">
-        <v>0.3854188477116338</v>
+        <v>0.4937250389282468</v>
       </c>
       <c r="F24">
-        <v>0.6607558966652647</v>
+        <v>1.307157133150184</v>
       </c>
       <c r="G24">
-        <v>0.002352253228298657</v>
+        <v>0.0007366423133075326</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6222352812718877</v>
+        <v>0.1543128679361508</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4051558211180009</v>
+        <v>1.148220855069184</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.422867333231522</v>
+        <v>1.594351190036036</v>
       </c>
       <c r="O24">
-        <v>2.083659409168263</v>
+        <v>3.932261072516269</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.98161482115475</v>
+        <v>1.901053030722892</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.003675211344010165</v>
+        <v>0.008925521633418754</v>
       </c>
       <c r="E25">
-        <v>0.3693140804043082</v>
+        <v>0.4394687415012584</v>
       </c>
       <c r="F25">
-        <v>0.6068065047297324</v>
+        <v>1.068241006416301</v>
       </c>
       <c r="G25">
-        <v>0.002358112816098878</v>
+        <v>0.0007458001064337694</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6429865542096203</v>
+        <v>0.1867750306539857</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3440291964822961</v>
+        <v>0.9381135350000989</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.387176561929522</v>
+        <v>1.468651414048452</v>
       </c>
       <c r="O25">
-        <v>1.926774207316839</v>
+        <v>3.217017943284276</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.600722238680561</v>
+        <v>0.3144548919035657</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.007645412286610309</v>
+        <v>0.2798193819485419</v>
       </c>
       <c r="E2">
-        <v>0.3996070778909697</v>
+        <v>0.2177191310630349</v>
       </c>
       <c r="F2">
-        <v>0.8987385416736799</v>
+        <v>0.5986758178410483</v>
       </c>
       <c r="G2">
-        <v>0.0007528348657037801</v>
+        <v>0.2844223955713261</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0005656674057152866</v>
       </c>
       <c r="I2">
-        <v>0.2135929663317988</v>
+        <v>0.008454045558947243</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2601015142726126</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2831845616357356</v>
       </c>
       <c r="L2">
-        <v>0.7848843275303352</v>
+        <v>0.2269293084314725</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2.609674863648507</v>
       </c>
       <c r="N2">
-        <v>1.379820366217004</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.711113877428744</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.096260340211941</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.397974649862078</v>
+        <v>0.2736110159312517</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.006778212920899307</v>
+        <v>0.2493450776944854</v>
       </c>
       <c r="E3">
-        <v>0.3726262695223923</v>
+        <v>0.1947211658919485</v>
       </c>
       <c r="F3">
-        <v>0.7870573609593237</v>
+        <v>0.5696905142655027</v>
       </c>
       <c r="G3">
-        <v>0.0007577984364705448</v>
+        <v>0.273555885351584</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.807691966190468E-05</v>
       </c>
       <c r="I3">
-        <v>0.2334493849550165</v>
+        <v>0.009797897856610671</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2597071362197312</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2920504385361049</v>
       </c>
       <c r="L3">
-        <v>0.6816695896087168</v>
+        <v>0.2034840154404236</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2.286912017898914</v>
       </c>
       <c r="N3">
-        <v>1.321759377891595</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.378606775494688</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.07209706516926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.273767562447659</v>
+        <v>0.2481065215695821</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.006245387996996143</v>
+        <v>0.230689183152279</v>
       </c>
       <c r="E4">
-        <v>0.3560721811454286</v>
+        <v>0.1806041534697016</v>
       </c>
       <c r="F4">
-        <v>0.7198168743230866</v>
+        <v>0.5524249474762257</v>
       </c>
       <c r="G4">
-        <v>0.0007609470194438602</v>
+        <v>0.2673143874729291</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.133520360463436E-06</v>
       </c>
       <c r="I4">
-        <v>0.2464278799043678</v>
+        <v>0.01073553100884572</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.259756352367944</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2979540511087695</v>
       </c>
       <c r="L4">
-        <v>0.6185205894493748</v>
+        <v>0.1890619784339194</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.089582190054188</v>
       </c>
       <c r="N4">
-        <v>1.287111452175864</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.178775859983716</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.058775911929885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.223208587027557</v>
+        <v>0.2367122493019878</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.006028100783671775</v>
+        <v>0.2232024965199741</v>
       </c>
       <c r="E5">
-        <v>0.3493289773724015</v>
+        <v>0.1748764194989754</v>
       </c>
       <c r="F5">
-        <v>0.6927175075803405</v>
+        <v>0.5451266301177782</v>
       </c>
       <c r="G5">
-        <v>0.000762256054164937</v>
+        <v>0.2645620544175173</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6.855970223762498E-06</v>
       </c>
       <c r="I5">
-        <v>0.2519083463622752</v>
+        <v>0.01123182660387023</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2596775348029468</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3006737654224558</v>
       </c>
       <c r="L5">
-        <v>0.5928320729728114</v>
+        <v>0.1831610667755967</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2.012378943035202</v>
       </c>
       <c r="N5">
-        <v>1.273236816381981</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.098325350402774</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.052695863774105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.214816318548884</v>
+        <v>0.2337194440151791</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005992009159184519</v>
+        <v>0.2220870625670699</v>
       </c>
       <c r="E6">
-        <v>0.3482094302781817</v>
+        <v>0.1739567760840899</v>
       </c>
       <c r="F6">
-        <v>0.6882349618291528</v>
+        <v>0.5434465156152797</v>
       </c>
       <c r="G6">
-        <v>0.0007624750028607133</v>
+        <v>0.2637308378937675</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.04691763280762E-05</v>
       </c>
       <c r="I6">
-        <v>0.2528297716743202</v>
+        <v>0.01142917984134417</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2594614502216572</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3013836828629639</v>
       </c>
       <c r="L6">
-        <v>0.588568924779679</v>
+        <v>0.1821619257838805</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.003270586975191</v>
       </c>
       <c r="N6">
-        <v>1.270947518914326</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.085022931808794</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.050468090568444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.273085496051664</v>
+        <v>0.2449511235837321</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006242458301862541</v>
+        <v>0.2309354840494393</v>
       </c>
       <c r="E7">
-        <v>0.3559812292867477</v>
+        <v>0.1806132273632315</v>
       </c>
       <c r="F7">
-        <v>0.7194502239243832</v>
+        <v>0.5510293960566699</v>
       </c>
       <c r="G7">
-        <v>0.0007609645676913275</v>
+        <v>0.2662408086004717</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.027460077906994E-06</v>
       </c>
       <c r="I7">
-        <v>0.2465010234758239</v>
+        <v>0.01103542772064436</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2591913382779794</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2986875895441337</v>
       </c>
       <c r="L7">
-        <v>0.6181739766497998</v>
+        <v>0.1889313811656592</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.098670604490422</v>
       </c>
       <c r="N7">
-        <v>1.286923352519509</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.17768703559517</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.055316562746654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.530747721949751</v>
+        <v>0.2964496970306243</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.007346434466708018</v>
+        <v>0.269760327978176</v>
       </c>
       <c r="E8">
-        <v>0.390301286029846</v>
+        <v>0.209902800305791</v>
       </c>
       <c r="F8">
-        <v>0.8599336698631674</v>
+        <v>0.5868632374665523</v>
       </c>
       <c r="G8">
-        <v>0.0007545257171573536</v>
+        <v>0.2792233968557412</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0003633674563479072</v>
       </c>
       <c r="I8">
-        <v>0.2202724217584108</v>
+        <v>0.009248623074425311</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2591676413789017</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2871300896222291</v>
       </c>
       <c r="L8">
-        <v>0.7492419946668463</v>
+        <v>0.2187827548802161</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.51172410899315</v>
       </c>
       <c r="N8">
-        <v>1.359588514770067</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2.595500567910108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.083182197148048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.038961357486585</v>
+        <v>0.3994014025410308</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009511980641569551</v>
+        <v>0.3458066378436229</v>
       </c>
       <c r="E9">
-        <v>0.4577282433171348</v>
+        <v>0.2672936201419418</v>
       </c>
       <c r="F9">
-        <v>1.147610452344267</v>
+        <v>0.6639934768819558</v>
       </c>
       <c r="G9">
-        <v>0.000742671903495188</v>
+        <v>0.3102234290567907</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.00270378905337143</v>
       </c>
       <c r="I9">
-        <v>0.175368025307219</v>
+        <v>0.006225558142254783</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2625501104126116</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2669067561112097</v>
       </c>
       <c r="L9">
-        <v>1.008619085114049</v>
+        <v>0.2772892338850852</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>3.311159503238514</v>
       </c>
       <c r="N9">
-        <v>1.510390184914158</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>3.454364085506597</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.156691422845114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.415236139141484</v>
+        <v>0.4730583764914655</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01110920274962979</v>
+        <v>0.3941255770779719</v>
       </c>
       <c r="E10">
-        <v>0.5074035658333216</v>
+        <v>0.2987462259873439</v>
       </c>
       <c r="F10">
-        <v>1.368836718097299</v>
+        <v>0.7113055294443242</v>
       </c>
       <c r="G10">
-        <v>0.0007343919651999784</v>
+        <v>0.3294356939408516</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.005560890967863497</v>
       </c>
       <c r="I10">
-        <v>0.1467757065455512</v>
+        <v>0.004790080038488576</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2635837045243932</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2560740820173208</v>
       </c>
       <c r="L10">
-        <v>1.201483768416239</v>
+        <v>0.3056340232285351</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3.902876766573343</v>
       </c>
       <c r="N10">
-        <v>1.62678960887996</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>4.117276569586124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.200063433555613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.587308272617065</v>
+        <v>0.5170370016721506</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01183870879424376</v>
+        <v>0.3478044594653653</v>
       </c>
       <c r="E11">
-        <v>0.5300508906280683</v>
+        <v>0.2257169336554981</v>
       </c>
       <c r="F11">
-        <v>1.472215790486786</v>
+        <v>0.6304059186106841</v>
       </c>
       <c r="G11">
-        <v>0.0007307082472338024</v>
+        <v>0.2888670426704749</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02392391545946992</v>
       </c>
       <c r="I11">
-        <v>0.1348215506674328</v>
+        <v>0.004846809299200672</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2394732028088598</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2641509040339436</v>
       </c>
       <c r="L11">
-        <v>1.289934075867762</v>
+        <v>0.206129298651021</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4.127984933212758</v>
       </c>
       <c r="N11">
-        <v>1.681089822491913</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>4.427684702213128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.063739666398831</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.652620822678671</v>
+        <v>0.5445109634392509</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01211552161762697</v>
+        <v>0.3008348779156194</v>
       </c>
       <c r="E12">
-        <v>0.5386359454736507</v>
+        <v>0.1673605834348457</v>
       </c>
       <c r="F12">
-        <v>1.511811186230773</v>
+        <v>0.5576010454757565</v>
       </c>
       <c r="G12">
-        <v>0.000729324325841274</v>
+        <v>0.2537455146309071</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06213728314040878</v>
       </c>
       <c r="I12">
-        <v>0.1304549789818996</v>
+        <v>0.004692291175264707</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2203456370867727</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2731882217021742</v>
       </c>
       <c r="L12">
-        <v>1.323549740919191</v>
+        <v>0.1365000283509445</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.1743182309649</v>
       </c>
       <c r="N12">
-        <v>1.701857316659044</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>4.546673915331439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.949275729816037</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.638547428338995</v>
+        <v>0.5558617014829395</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01205587737925029</v>
+        <v>0.251469454044468</v>
       </c>
       <c r="E13">
-        <v>0.5367865657581987</v>
+        <v>0.1172846339438962</v>
       </c>
       <c r="F13">
-        <v>1.503262778860687</v>
+        <v>0.4849391171220603</v>
       </c>
       <c r="G13">
-        <v>0.0007296219028638752</v>
+        <v>0.2191547184738383</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.117182780869328</v>
       </c>
       <c r="I13">
-        <v>0.1313881263046603</v>
+        <v>0.004762731788940044</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2030300660598883</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2844141774892748</v>
       </c>
       <c r="L13">
-        <v>1.316304290055882</v>
+        <v>0.08586256669362058</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.10142591838661</v>
       </c>
       <c r="N13">
-        <v>1.697375354487974</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>4.520980307660693</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.8396405363705526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.59267838066927</v>
+        <v>0.5554923708381239</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01186147013079974</v>
+        <v>0.2166276263536844</v>
       </c>
       <c r="E14">
-        <v>0.5307569956697407</v>
+        <v>0.08762084131141989</v>
       </c>
       <c r="F14">
-        <v>1.475464024694986</v>
+        <v>0.4347910696263497</v>
       </c>
       <c r="G14">
-        <v>0.0007305941756809555</v>
+        <v>0.1954007854028319</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1659683227780562</v>
       </c>
       <c r="I14">
-        <v>0.1344590467639838</v>
+        <v>0.005004524648774655</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1917888236386034</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2937329681232406</v>
       </c>
       <c r="L14">
-        <v>1.292697110207058</v>
+        <v>0.06191771217373443</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3.999759143102892</v>
       </c>
       <c r="N14">
-        <v>1.682794198181767</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>4.437444025799891</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.7656708296147485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.564602840763769</v>
+        <v>0.5504620440062524</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01174246826873215</v>
+        <v>0.2074411487146364</v>
       </c>
       <c r="E15">
-        <v>0.5270649447026727</v>
+        <v>0.08094090909397877</v>
       </c>
       <c r="F15">
-        <v>1.458496500493226</v>
+        <v>0.4218853455152782</v>
       </c>
       <c r="G15">
-        <v>0.0007311911284800025</v>
+        <v>0.1892685469259234</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1782476904064367</v>
       </c>
       <c r="I15">
-        <v>0.1363612098424622</v>
+        <v>0.005242103070473902</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1892126098636453</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2968491713727524</v>
       </c>
       <c r="L15">
-        <v>1.278253428431185</v>
+        <v>0.05754322700967229</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3.954125047963487</v>
       </c>
       <c r="N15">
-        <v>1.673889882649036</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>4.386469123910956</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.7472382073910211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.404010889077369</v>
+        <v>0.5140851453834614</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01106159849839372</v>
+        <v>0.1982358512736084</v>
       </c>
       <c r="E16">
-        <v>0.5059246597515568</v>
+        <v>0.07912030703232276</v>
       </c>
       <c r="F16">
-        <v>1.362140311862419</v>
+        <v>0.4165985578772577</v>
       </c>
       <c r="G16">
-        <v>0.0007346342976761102</v>
+        <v>0.187627855025724</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1644387664163247</v>
       </c>
       <c r="I16">
-        <v>0.1475788636456905</v>
+        <v>0.005955583389349428</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1919007267620927</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2986248666742526</v>
       </c>
       <c r="L16">
-        <v>1.195719277747429</v>
+        <v>0.05719450025348216</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>3.720974125734301</v>
       </c>
       <c r="N16">
-        <v>1.623269051748593</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>4.097183056227436</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.7491923725561662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.305739760526592</v>
+        <v>0.4863322941197907</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01064475177102864</v>
+        <v>0.2092075487996397</v>
       </c>
       <c r="E17">
-        <v>0.4929697111451219</v>
+        <v>0.09233165145496969</v>
       </c>
       <c r="F17">
-        <v>1.303767956963554</v>
+        <v>0.4386757017551943</v>
       </c>
       <c r="G17">
-        <v>0.0007367671820103618</v>
+        <v>0.1987962827150724</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.126137356985268</v>
       </c>
       <c r="I17">
-        <v>0.1547362546432658</v>
+        <v>0.006410963657690338</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.199886557347547</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2951759985403264</v>
       </c>
       <c r="L17">
-        <v>1.145283157292766</v>
+        <v>0.06757934316738456</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>3.596954867553166</v>
       </c>
       <c r="N17">
-        <v>1.592568135745211</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>3.922098952296381</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.789479637644547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.249300316661731</v>
+        <v>0.4659309339185995</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01040525775182388</v>
+        <v>0.2401984184056687</v>
       </c>
       <c r="E18">
-        <v>0.4855229178357234</v>
+        <v>0.1250555238706177</v>
       </c>
       <c r="F18">
-        <v>1.270448343739261</v>
+        <v>0.4896303929534014</v>
       </c>
       <c r="G18">
-        <v>0.0007380018182702198</v>
+        <v>0.2238042355923895</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07328687976153248</v>
       </c>
       <c r="I18">
-        <v>0.1589515148472512</v>
+        <v>0.00635581883482228</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.214048106022517</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2862323674605491</v>
       </c>
       <c r="L18">
-        <v>1.116339744284801</v>
+        <v>0.09843313161839973</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>3.542771325273918</v>
       </c>
       <c r="N18">
-        <v>1.575036095087498</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>3.822216637881809</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.8721016727321711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.230204571306729</v>
+        <v>0.4471702000589488</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.010324210664443</v>
+        <v>0.288324141974158</v>
       </c>
       <c r="E19">
-        <v>0.4830022936219436</v>
+        <v>0.1791146169155944</v>
       </c>
       <c r="F19">
-        <v>1.259209067519308</v>
+        <v>0.561731999237999</v>
       </c>
       <c r="G19">
-        <v>0.0007384212204570208</v>
+        <v>0.2582776972168901</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02858859803667002</v>
       </c>
       <c r="I19">
-        <v>0.1603953896183645</v>
+        <v>0.006481190680331927</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2319974162972116</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2769264874111279</v>
       </c>
       <c r="L19">
-        <v>1.106550815854774</v>
+        <v>0.1586958556868083</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>3.567842833875261</v>
       </c>
       <c r="N19">
-        <v>1.56912141531474</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>3.78853427928658</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.9827808688754232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.316192088219452</v>
+        <v>0.4443633930853679</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01068909738828339</v>
+        <v>0.3821596694107541</v>
       </c>
       <c r="E20">
-        <v>0.4943483045424841</v>
+        <v>0.2902944411256669</v>
       </c>
       <c r="F20">
-        <v>1.309955067681642</v>
+        <v>0.6942278344950523</v>
       </c>
       <c r="G20">
-        <v>0.0007365393258121906</v>
+        <v>0.3208447892226047</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.004705581802077141</v>
       </c>
       <c r="I20">
-        <v>0.153964079601244</v>
+        <v>0.006009640288847429</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2614028035986848</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2615716413984401</v>
       </c>
       <c r="L20">
-        <v>1.150645196761559</v>
+        <v>0.2974205224209356</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>3.779336819388107</v>
       </c>
       <c r="N20">
-        <v>1.595823149460472</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>3.940650739190289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.17716408235691</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.606146900478677</v>
+        <v>0.4994172464052724</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01191855566927913</v>
+        <v>0.4318588437076585</v>
       </c>
       <c r="E21">
-        <v>0.5325277653107179</v>
+        <v>0.3313813197351934</v>
       </c>
       <c r="F21">
-        <v>1.483616582852292</v>
+        <v>0.7511512098881781</v>
       </c>
       <c r="G21">
-        <v>0.0007303083039179675</v>
+        <v>0.3461483743245708</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.00738569097797348</v>
       </c>
       <c r="I21">
-        <v>0.1335526217727336</v>
+        <v>0.004901148301203584</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2675731907582559</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.25197079057126</v>
       </c>
       <c r="L21">
-        <v>1.299627658350005</v>
+        <v>0.3419440111526342</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>4.239928765000741</v>
       </c>
       <c r="N21">
-        <v>1.68707137626501</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>4.461940005236556</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.244091673340876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.796550370630541</v>
+        <v>0.5398284058546778</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01272545211583775</v>
+        <v>0.4598452072892769</v>
       </c>
       <c r="E22">
-        <v>0.5575339165444646</v>
+        <v>0.3526208224159717</v>
       </c>
       <c r="F22">
-        <v>1.599754084455185</v>
+        <v>0.7846413678454951</v>
       </c>
       <c r="G22">
-        <v>0.0007262997482566647</v>
+        <v>0.361680705206112</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.009378129828125692</v>
       </c>
       <c r="I22">
-        <v>0.1211508790839812</v>
+        <v>0.003965335915141033</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.271206523686871</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2455777800097252</v>
       </c>
       <c r="L22">
-        <v>1.397714102141606</v>
+        <v>0.363690671076256</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>4.525416447254941</v>
       </c>
       <c r="N22">
-        <v>1.747909035988926</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>4.811143223399824</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.284854973712299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.694837971307095</v>
+        <v>0.5219258725608142</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01229443413888376</v>
+        <v>0.4444798877838707</v>
       </c>
       <c r="E23">
-        <v>0.5441820259010797</v>
+        <v>0.3411720600178612</v>
       </c>
       <c r="F23">
-        <v>1.537508771214206</v>
+        <v>0.7681739239481686</v>
       </c>
       <c r="G23">
-        <v>0.0007284336696715907</v>
+        <v>0.3545017492475608</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.008288290101280932</v>
       </c>
       <c r="I23">
-        <v>0.1276809971435202</v>
+        <v>0.004116852644110658</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2698593745697337</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.247851702885777</v>
       </c>
       <c r="L23">
-        <v>1.345291249685346</v>
+        <v>0.3521362497643992</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>4.360502213331245</v>
       </c>
       <c r="N23">
-        <v>1.715325004927394</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>4.623927072426852</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.266692902140107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.31146641210438</v>
+        <v>0.4476152071672175</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01066904825713522</v>
+        <v>0.3871973441696923</v>
       </c>
       <c r="E24">
-        <v>0.4937250389282468</v>
+        <v>0.298124208508618</v>
       </c>
       <c r="F24">
-        <v>1.307157133150184</v>
+        <v>0.70508022294689</v>
       </c>
       <c r="G24">
-        <v>0.0007366423133075326</v>
+        <v>0.3267901953105223</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.00470668574678057</v>
       </c>
       <c r="I24">
-        <v>0.1543128679361508</v>
+        <v>0.005468006073371612</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2645349905445613</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2592369319084824</v>
       </c>
       <c r="L24">
-        <v>1.148220855069184</v>
+        <v>0.3083964908960439</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>3.758471360025112</v>
       </c>
       <c r="N24">
-        <v>1.594351190036036</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>3.932261072516269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.196323479132673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.901053030722892</v>
+        <v>0.36641777301557</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.008925521633418754</v>
+        <v>0.3257957801474163</v>
       </c>
       <c r="E25">
-        <v>0.4394687415012584</v>
+        <v>0.2519032880070924</v>
       </c>
       <c r="F25">
-        <v>1.068241006416301</v>
+        <v>0.640283983872699</v>
       </c>
       <c r="G25">
-        <v>0.0007458001064337694</v>
+        <v>0.2995646040058659</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001878861158599143</v>
       </c>
       <c r="I25">
-        <v>0.1867750306539857</v>
+        <v>0.007433319612156986</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2603685629196164</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.273437788066202</v>
       </c>
       <c r="L25">
-        <v>0.9381135350000989</v>
+        <v>0.2613711562593011</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>3.112612352247254</v>
       </c>
       <c r="N25">
-        <v>1.468651414048452</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>3.217017943284276</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.129343857338299</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3144548919035657</v>
+        <v>0.3540523263798718</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2798193819485419</v>
+        <v>0.2758633213514088</v>
       </c>
       <c r="E2">
-        <v>0.2177191310630349</v>
+        <v>0.2167355647978368</v>
       </c>
       <c r="F2">
-        <v>0.5986758178410483</v>
+        <v>0.6134486529050065</v>
       </c>
       <c r="G2">
-        <v>0.2844223955713261</v>
+        <v>0.2780409417111258</v>
       </c>
       <c r="H2">
-        <v>0.0005656674057152866</v>
+        <v>0.0005669929824856368</v>
       </c>
       <c r="I2">
-        <v>0.008454045558947243</v>
+        <v>0.004871815319553718</v>
       </c>
       <c r="J2">
-        <v>0.2601015142726126</v>
+        <v>0.3039074786833496</v>
       </c>
       <c r="K2">
-        <v>0.2831845616357356</v>
+        <v>0.2456117825129116</v>
       </c>
       <c r="L2">
-        <v>0.2269293084314725</v>
+        <v>0.1083265680480618</v>
       </c>
       <c r="M2">
-        <v>2.609674863648507</v>
+        <v>0.07995632130987396</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2275196675233531</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.478005206854505</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.096260340211941</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.134715327969928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2736110159312517</v>
+        <v>0.3130316445217147</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2493450776944854</v>
+        <v>0.2455654486760039</v>
       </c>
       <c r="E3">
-        <v>0.1947211658919485</v>
+        <v>0.1938602936514116</v>
       </c>
       <c r="F3">
-        <v>0.5696905142655027</v>
+        <v>0.5839785740354486</v>
       </c>
       <c r="G3">
-        <v>0.273555885351584</v>
+        <v>0.2671439290473998</v>
       </c>
       <c r="H3">
-        <v>9.807691966190468E-05</v>
+        <v>0.0001037835065964554</v>
       </c>
       <c r="I3">
-        <v>0.009797897856610671</v>
+        <v>0.005683946450242505</v>
       </c>
       <c r="J3">
-        <v>0.2597071362197312</v>
+        <v>0.3011427659138022</v>
       </c>
       <c r="K3">
-        <v>0.2920504385361049</v>
+        <v>0.2528619610810647</v>
       </c>
       <c r="L3">
-        <v>0.2034840154404236</v>
+        <v>0.1101554926873927</v>
       </c>
       <c r="M3">
-        <v>2.286912017898914</v>
+        <v>0.08536087212817023</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2041842138006729</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.156856979742656</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.07209706516926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.108946398395261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2481065215695821</v>
+        <v>0.2872803122345573</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.230689183152279</v>
+        <v>0.2270304645768846</v>
       </c>
       <c r="E4">
-        <v>0.1806041534697016</v>
+        <v>0.1798210096227741</v>
       </c>
       <c r="F4">
-        <v>0.5524249474762257</v>
+        <v>0.5663456055912377</v>
       </c>
       <c r="G4">
-        <v>0.2673143874729291</v>
+        <v>0.2609243298651194</v>
       </c>
       <c r="H4">
-        <v>1.133520360463436E-06</v>
+        <v>2.281502496259691E-06</v>
       </c>
       <c r="I4">
-        <v>0.01073553100884572</v>
+        <v>0.006272040037138105</v>
       </c>
       <c r="J4">
-        <v>0.259756352367944</v>
+        <v>0.2995779851384626</v>
       </c>
       <c r="K4">
-        <v>0.2979540511087695</v>
+        <v>0.2577361032034924</v>
       </c>
       <c r="L4">
-        <v>0.1890619784339194</v>
+        <v>0.1118206486808216</v>
       </c>
       <c r="M4">
-        <v>2.089582190054188</v>
+        <v>0.08895564050813043</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1898265940598733</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.96086263645941</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.058775911929885</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.09443438806305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2367122493019878</v>
+        <v>0.2757969033354044</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2232024965199741</v>
+        <v>0.219583066674673</v>
       </c>
       <c r="E5">
-        <v>0.1748764194989754</v>
+        <v>0.1741223539145871</v>
       </c>
       <c r="F5">
-        <v>0.5451266301177782</v>
+        <v>0.5589197890975655</v>
       </c>
       <c r="G5">
-        <v>0.2645620544175173</v>
+        <v>0.2582210883075646</v>
       </c>
       <c r="H5">
-        <v>6.855970223762498E-06</v>
+        <v>4.43480918099759E-06</v>
       </c>
       <c r="I5">
-        <v>0.01123182660387023</v>
+        <v>0.006629013127581906</v>
       </c>
       <c r="J5">
-        <v>0.2596775348029468</v>
+        <v>0.2988151213611943</v>
       </c>
       <c r="K5">
-        <v>0.3006737654224558</v>
+        <v>0.2599199885151258</v>
       </c>
       <c r="L5">
-        <v>0.1831610667755967</v>
+        <v>0.1125784688775679</v>
       </c>
       <c r="M5">
-        <v>2.012378943035202</v>
+        <v>0.09061375840234298</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1839528152507626</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.883860472794112</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.052695863774105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.087911603917348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2337194440151791</v>
+        <v>0.2728446152571848</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2220870625670699</v>
+        <v>0.2184580802506275</v>
       </c>
       <c r="E6">
-        <v>0.1739567760840899</v>
+        <v>0.1732035529531899</v>
       </c>
       <c r="F6">
-        <v>0.5434465156152797</v>
+        <v>0.5572659232487638</v>
       </c>
       <c r="G6">
-        <v>0.2637308378937675</v>
+        <v>0.2574367779331865</v>
       </c>
       <c r="H6">
-        <v>1.04691763280762E-05</v>
+        <v>7.35736806167786E-06</v>
       </c>
       <c r="I6">
-        <v>0.01142917984134417</v>
+        <v>0.006815122604220569</v>
       </c>
       <c r="J6">
-        <v>0.2594614502216572</v>
+        <v>0.2984981235787956</v>
       </c>
       <c r="K6">
-        <v>0.3013836828629639</v>
+        <v>0.260408424937693</v>
       </c>
       <c r="L6">
-        <v>0.1821619257838805</v>
+        <v>0.1126467608176645</v>
       </c>
       <c r="M6">
-        <v>2.003270586975191</v>
+        <v>0.09104564357600253</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1829600564655038</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.87426035713284</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.050468090568444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.08572153922907</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2449511235837321</v>
+        <v>0.2846399331581182</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2309354840494393</v>
+        <v>0.227483361626966</v>
       </c>
       <c r="E7">
-        <v>0.1806132273632315</v>
+        <v>0.1798710278114406</v>
       </c>
       <c r="F7">
-        <v>0.5510293960566699</v>
+        <v>0.5641164829675915</v>
       </c>
       <c r="G7">
-        <v>0.2662408086004717</v>
+        <v>0.2623005263100779</v>
       </c>
       <c r="H7">
-        <v>1.027460077906994E-06</v>
+        <v>2.019905779748754E-06</v>
       </c>
       <c r="I7">
-        <v>0.01103542772064436</v>
+        <v>0.00660340021677186</v>
       </c>
       <c r="J7">
-        <v>0.2591913382779794</v>
+        <v>0.2953335980974572</v>
       </c>
       <c r="K7">
-        <v>0.2986875895441337</v>
+        <v>0.2581580048073588</v>
       </c>
       <c r="L7">
-        <v>0.1889313811656592</v>
+        <v>0.1116667575377993</v>
       </c>
       <c r="M7">
-        <v>2.098670604490422</v>
+        <v>0.08942695378751786</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1896452810320497</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.967348628951981</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.055316562746654</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.088813893974418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2964496970306243</v>
+        <v>0.3374366865979539</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.269760327978176</v>
+        <v>0.2666459611361063</v>
       </c>
       <c r="E8">
-        <v>0.209902800305791</v>
+        <v>0.2091216245999803</v>
       </c>
       <c r="F8">
-        <v>0.5868632374665523</v>
+        <v>0.5984589306647763</v>
       </c>
       <c r="G8">
-        <v>0.2792233968557412</v>
+        <v>0.2808289182582158</v>
       </c>
       <c r="H8">
-        <v>0.0003633674563479072</v>
+        <v>0.0003632599481613319</v>
       </c>
       <c r="I8">
-        <v>0.009248623074425311</v>
+        <v>0.005533915118778765</v>
       </c>
       <c r="J8">
-        <v>0.2591676413789017</v>
+        <v>0.2901611864245979</v>
       </c>
       <c r="K8">
-        <v>0.2871300896222291</v>
+        <v>0.248782234210795</v>
       </c>
       <c r="L8">
-        <v>0.2187827548802161</v>
+        <v>0.1088026262642585</v>
       </c>
       <c r="M8">
-        <v>2.51172410899315</v>
+        <v>0.08236025560370841</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2192330633731459</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2.37474598388664</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.083182197148048</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.113381154519487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3994014025410308</v>
+        <v>0.4402427799248869</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3458066378436229</v>
+        <v>0.3426144168002168</v>
       </c>
       <c r="E9">
-        <v>0.2672936201419418</v>
+        <v>0.2662822602583219</v>
       </c>
       <c r="F9">
-        <v>0.6639934768819558</v>
+        <v>0.6753618506711874</v>
       </c>
       <c r="G9">
-        <v>0.3102234290567907</v>
+        <v>0.3142880464330773</v>
       </c>
       <c r="H9">
-        <v>0.00270378905337143</v>
+        <v>0.002638125126920632</v>
       </c>
       <c r="I9">
-        <v>0.006225558142254783</v>
+        <v>0.003665247210935085</v>
       </c>
       <c r="J9">
-        <v>0.2625501104126116</v>
+        <v>0.295133874155006</v>
       </c>
       <c r="K9">
-        <v>0.2669067561112097</v>
+        <v>0.2329002383100871</v>
       </c>
       <c r="L9">
-        <v>0.2772892338850852</v>
+        <v>0.1075993838787586</v>
       </c>
       <c r="M9">
-        <v>3.311159503238514</v>
+        <v>0.06994128824787182</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2773891905589778</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>3.172409304218149</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.156691422845114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.187134388256965</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4730583764914655</v>
+        <v>0.5162362370606957</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3941255770779719</v>
+        <v>0.3923676469421196</v>
       </c>
       <c r="E10">
-        <v>0.2987462259873439</v>
+        <v>0.2978802909713281</v>
       </c>
       <c r="F10">
-        <v>0.7113055294443242</v>
+        <v>0.7168238135103877</v>
       </c>
       <c r="G10">
-        <v>0.3294356939408516</v>
+        <v>0.3499206591593946</v>
       </c>
       <c r="H10">
-        <v>0.005560890967863497</v>
+        <v>0.005379564407081983</v>
       </c>
       <c r="I10">
-        <v>0.004790080038488576</v>
+        <v>0.002966053049549444</v>
       </c>
       <c r="J10">
-        <v>0.2635837045243932</v>
+        <v>0.2768169252237058</v>
       </c>
       <c r="K10">
-        <v>0.2560740820173208</v>
+        <v>0.2250879143813194</v>
       </c>
       <c r="L10">
-        <v>0.3056340232285351</v>
+        <v>0.1100808115358749</v>
       </c>
       <c r="M10">
-        <v>3.902876766573343</v>
+        <v>0.0627099560452864</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.305151737541081</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>3.754091397581078</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.200063433555613</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.216145313452216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5170370016721506</v>
+        <v>0.5728103824552591</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3478044594653653</v>
+        <v>0.3485137975326325</v>
       </c>
       <c r="E11">
-        <v>0.2257169336554981</v>
+        <v>0.2252996381099166</v>
       </c>
       <c r="F11">
-        <v>0.6304059186106841</v>
+        <v>0.6267802056260479</v>
       </c>
       <c r="G11">
-        <v>0.2888670426704749</v>
+        <v>0.3397747950978527</v>
       </c>
       <c r="H11">
-        <v>0.02392391545946992</v>
+        <v>0.0236754273281008</v>
       </c>
       <c r="I11">
-        <v>0.004846809299200672</v>
+        <v>0.003355891835561842</v>
       </c>
       <c r="J11">
-        <v>0.2394732028088598</v>
+        <v>0.2208027501428091</v>
       </c>
       <c r="K11">
-        <v>0.2641509040339436</v>
+        <v>0.2319183923357624</v>
       </c>
       <c r="L11">
-        <v>0.206129298651021</v>
+        <v>0.11605345391059</v>
       </c>
       <c r="M11">
-        <v>4.127984933212758</v>
+        <v>0.0627815621476504</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2051237414757168</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>3.9402127619677</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.063739666398831</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.056905269658259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5445109634392509</v>
+        <v>0.6092935864206765</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3008348779156194</v>
+        <v>0.3022854340224512</v>
       </c>
       <c r="E12">
-        <v>0.1673605834348457</v>
+        <v>0.1670387444802977</v>
       </c>
       <c r="F12">
-        <v>0.5576010454757565</v>
+        <v>0.5513095280544746</v>
       </c>
       <c r="G12">
-        <v>0.2537455146309071</v>
+        <v>0.315963892462662</v>
       </c>
       <c r="H12">
-        <v>0.06213728314040878</v>
+        <v>0.06187389992214776</v>
       </c>
       <c r="I12">
-        <v>0.004692291175264707</v>
+        <v>0.003269877561701051</v>
       </c>
       <c r="J12">
-        <v>0.2203456370867727</v>
+        <v>0.1943389153154556</v>
       </c>
       <c r="K12">
-        <v>0.2731882217021742</v>
+        <v>0.2389794759864472</v>
       </c>
       <c r="L12">
-        <v>0.1365000283509445</v>
+        <v>0.1203919551949166</v>
       </c>
       <c r="M12">
-        <v>4.1743182309649</v>
+        <v>0.06413476568164</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.13543543803776</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>3.961922162961343</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.949275729816037</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.9357336687513111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5558617014829395</v>
+        <v>0.6266660226705483</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.251469454044468</v>
+        <v>0.2520186810510268</v>
       </c>
       <c r="E13">
-        <v>0.1172846339438962</v>
+        <v>0.1168061048394122</v>
       </c>
       <c r="F13">
-        <v>0.4849391171220603</v>
+        <v>0.4820681641502418</v>
       </c>
       <c r="G13">
-        <v>0.2191547184738383</v>
+        <v>0.2740427587336356</v>
       </c>
       <c r="H13">
-        <v>0.117182780869328</v>
+        <v>0.1169485552532734</v>
       </c>
       <c r="I13">
-        <v>0.004762731788940044</v>
+        <v>0.003279466444072732</v>
       </c>
       <c r="J13">
-        <v>0.2030300660598883</v>
+        <v>0.1864554933273972</v>
       </c>
       <c r="K13">
-        <v>0.2844141774892748</v>
+        <v>0.2464789531868092</v>
       </c>
       <c r="L13">
-        <v>0.08586256669362058</v>
+        <v>0.1232055905700342</v>
       </c>
       <c r="M13">
-        <v>4.10142591838661</v>
+        <v>0.06679515167184036</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.08502790323599996</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>3.875316798708923</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.8396405363705526</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.8346683379229205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5554923708381239</v>
+        <v>0.6292316014880157</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2166276263536844</v>
+        <v>0.216020066869703</v>
       </c>
       <c r="E14">
-        <v>0.08762084131141989</v>
+        <v>0.08700550853297884</v>
       </c>
       <c r="F14">
-        <v>0.4347910696263497</v>
+        <v>0.4363390493907815</v>
       </c>
       <c r="G14">
-        <v>0.1954007854028319</v>
+        <v>0.2383820213218044</v>
       </c>
       <c r="H14">
-        <v>0.1659683227780562</v>
+        <v>0.1657697241326588</v>
       </c>
       <c r="I14">
-        <v>0.005004524648774655</v>
+        <v>0.003432951637258874</v>
       </c>
       <c r="J14">
-        <v>0.1917888236386034</v>
+        <v>0.1871993520491202</v>
       </c>
       <c r="K14">
-        <v>0.2937329681232406</v>
+        <v>0.2521134233853957</v>
       </c>
       <c r="L14">
-        <v>0.06191771217373443</v>
+        <v>0.1244656053805144</v>
       </c>
       <c r="M14">
-        <v>3.999759143102892</v>
+        <v>0.06941163955187335</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06128417394585384</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>3.768453974474369</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.7656708296147485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.7718506134808791</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5504620440062524</v>
+        <v>0.6243549626114486</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2074411487146364</v>
+        <v>0.2063209298021036</v>
       </c>
       <c r="E15">
-        <v>0.08094090909397877</v>
+        <v>0.08027962123363963</v>
       </c>
       <c r="F15">
-        <v>0.4218853455152782</v>
+        <v>0.4254046169057091</v>
       </c>
       <c r="G15">
-        <v>0.1892685469259234</v>
+        <v>0.2266645439630395</v>
       </c>
       <c r="H15">
-        <v>0.1782476904064367</v>
+        <v>0.1780658846479071</v>
       </c>
       <c r="I15">
-        <v>0.005242103070473902</v>
+        <v>0.00363967470232307</v>
       </c>
       <c r="J15">
-        <v>0.1892126098636453</v>
+        <v>0.1899823056579102</v>
       </c>
       <c r="K15">
-        <v>0.2968491713727524</v>
+        <v>0.2538373873701794</v>
       </c>
       <c r="L15">
-        <v>0.05754322700967229</v>
+        <v>0.1245116220879616</v>
       </c>
       <c r="M15">
-        <v>3.954125047963487</v>
+        <v>0.0704639905398281</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05698022953230542</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>3.723084146096141</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.7472382073910211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.7584151756989002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5140851453834614</v>
+        <v>0.5823363488944437</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1982358512736084</v>
+        <v>0.1951495089906103</v>
       </c>
       <c r="E16">
-        <v>0.07912030703232276</v>
+        <v>0.07829737241389978</v>
       </c>
       <c r="F16">
-        <v>0.4165985578772577</v>
+        <v>0.4277472969095868</v>
       </c>
       <c r="G16">
-        <v>0.187627855025724</v>
+        <v>0.2026322621144985</v>
       </c>
       <c r="H16">
-        <v>0.1644387664163247</v>
+        <v>0.1643312040420852</v>
       </c>
       <c r="I16">
-        <v>0.005955583389349428</v>
+        <v>0.004089046076938274</v>
       </c>
       <c r="J16">
-        <v>0.1919007267620927</v>
+        <v>0.2158165960622611</v>
       </c>
       <c r="K16">
-        <v>0.2986248666742526</v>
+        <v>0.2531628766025129</v>
       </c>
       <c r="L16">
-        <v>0.05719450025348216</v>
+        <v>0.1206547352838747</v>
       </c>
       <c r="M16">
-        <v>3.720974125734301</v>
+        <v>0.07290868601989509</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.0569129208623611</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>3.507787757062999</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.7491923725561662</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.7797347072119152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4863322941197907</v>
+        <v>0.5493697750271451</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2092075487996397</v>
+        <v>0.2053214897534588</v>
       </c>
       <c r="E17">
-        <v>0.09233165145496969</v>
+        <v>0.09140172862097984</v>
       </c>
       <c r="F17">
-        <v>0.4386757017551943</v>
+        <v>0.4529071516558361</v>
       </c>
       <c r="G17">
-        <v>0.1987962827150724</v>
+        <v>0.2048480364253322</v>
       </c>
       <c r="H17">
-        <v>0.126137356985268</v>
+        <v>0.1260609735248437</v>
       </c>
       <c r="I17">
-        <v>0.006410963657690338</v>
+        <v>0.004387358396894747</v>
       </c>
       <c r="J17">
-        <v>0.199886557347547</v>
+        <v>0.2348048884754448</v>
       </c>
       <c r="K17">
-        <v>0.2951759985403264</v>
+        <v>0.2502844729605336</v>
       </c>
       <c r="L17">
-        <v>0.06757934316738456</v>
+        <v>0.1175373459602014</v>
       </c>
       <c r="M17">
-        <v>3.596954867553166</v>
+        <v>0.07345751588640681</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06747046436550619</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>3.398128603066482</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.789479637644547</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.8277905166441855</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4659309339185995</v>
+        <v>0.5226116660531943</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2401984184056687</v>
+        <v>0.2360023589921099</v>
       </c>
       <c r="E18">
-        <v>0.1250555238706177</v>
+        <v>0.124004205187692</v>
       </c>
       <c r="F18">
-        <v>0.4896303929534014</v>
+        <v>0.5049410536477481</v>
       </c>
       <c r="G18">
-        <v>0.2238042355923895</v>
+        <v>0.2259136696012831</v>
       </c>
       <c r="H18">
-        <v>0.07328687976153248</v>
+        <v>0.07322042400209483</v>
       </c>
       <c r="I18">
-        <v>0.00635581883482228</v>
+        <v>0.004213630020386105</v>
       </c>
       <c r="J18">
-        <v>0.214048106022517</v>
+        <v>0.2539786871043503</v>
       </c>
       <c r="K18">
-        <v>0.2862323674605491</v>
+        <v>0.2443203298407788</v>
       </c>
       <c r="L18">
-        <v>0.09843313161839973</v>
+        <v>0.1143148700384131</v>
       </c>
       <c r="M18">
-        <v>3.542771325273918</v>
+        <v>0.07205189031897952</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.0984638314785613</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>3.360903828290191</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.8721016727321711</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.9130292702860174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4471702000589488</v>
+        <v>0.4972842609848556</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.288324141974158</v>
+        <v>0.2840801524680643</v>
       </c>
       <c r="E19">
-        <v>0.1791146169155944</v>
+        <v>0.1779447736584707</v>
       </c>
       <c r="F19">
-        <v>0.561731999237999</v>
+        <v>0.5770007415243299</v>
       </c>
       <c r="G19">
-        <v>0.2582776972168901</v>
+        <v>0.2590218230661776</v>
       </c>
       <c r="H19">
-        <v>0.02858859803667002</v>
+        <v>0.02851581449608176</v>
       </c>
       <c r="I19">
-        <v>0.006481190680331927</v>
+        <v>0.004363654318029653</v>
       </c>
       <c r="J19">
-        <v>0.2319974162972116</v>
+        <v>0.2734848873674665</v>
       </c>
       <c r="K19">
-        <v>0.2769264874111279</v>
+        <v>0.2384385745223323</v>
       </c>
       <c r="L19">
-        <v>0.1586958556868083</v>
+        <v>0.1119157813155383</v>
       </c>
       <c r="M19">
-        <v>3.567842833875261</v>
+        <v>0.07002882957252687</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1588090304369345</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>3.402156847301001</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.9827808688754232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.023451223475845</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4443633930853679</v>
+        <v>0.4864908200327704</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3821596694107541</v>
+        <v>0.3789548577541382</v>
       </c>
       <c r="E20">
-        <v>0.2902944411256669</v>
+        <v>0.2891606045029675</v>
       </c>
       <c r="F20">
-        <v>0.6942278344950523</v>
+        <v>0.7052014006496989</v>
       </c>
       <c r="G20">
-        <v>0.3208447892226047</v>
+        <v>0.3285241337919302</v>
       </c>
       <c r="H20">
-        <v>0.004705581802077141</v>
+        <v>0.004572806760526404</v>
       </c>
       <c r="I20">
-        <v>0.006009640288847429</v>
+        <v>0.004134633860094716</v>
       </c>
       <c r="J20">
-        <v>0.2614028035986848</v>
+        <v>0.2921171511217864</v>
       </c>
       <c r="K20">
-        <v>0.2615716413984401</v>
+        <v>0.2286710267590415</v>
       </c>
       <c r="L20">
-        <v>0.2974205224209356</v>
+        <v>0.1098228403528179</v>
       </c>
       <c r="M20">
-        <v>3.779336819388107</v>
+        <v>0.06518415325391302</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.297303287065759</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>3.633079369440566</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.17716408235691</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.206925811521216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4994172464052724</v>
+        <v>0.5485045900043133</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4318588437076585</v>
+        <v>0.4349530721071062</v>
       </c>
       <c r="E21">
-        <v>0.3313813197351934</v>
+        <v>0.3314575352237128</v>
       </c>
       <c r="F21">
-        <v>0.7511512098881781</v>
+        <v>0.7387169375812306</v>
       </c>
       <c r="G21">
-        <v>0.3461483743245708</v>
+        <v>0.4154389412591684</v>
       </c>
       <c r="H21">
-        <v>0.00738569097797348</v>
+        <v>0.007050952229648744</v>
       </c>
       <c r="I21">
-        <v>0.004901148301203584</v>
+        <v>0.003545288164464644</v>
       </c>
       <c r="J21">
-        <v>0.2675731907582559</v>
+        <v>0.2266111355292679</v>
       </c>
       <c r="K21">
-        <v>0.25197079057126</v>
+        <v>0.2240454840548534</v>
       </c>
       <c r="L21">
-        <v>0.3419440111526342</v>
+        <v>0.1131459245574753</v>
       </c>
       <c r="M21">
-        <v>4.239928765000741</v>
+        <v>0.05998983593848806</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.340300540895413</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>4.067209205706604</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.244091673340876</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.215279939663475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5398284058546778</v>
+        <v>0.5942080728199244</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4598452072892769</v>
+        <v>0.4676762708299691</v>
       </c>
       <c r="E22">
-        <v>0.3526208224159717</v>
+        <v>0.3536414687071385</v>
       </c>
       <c r="F22">
-        <v>0.7846413678454951</v>
+        <v>0.7550351558727755</v>
       </c>
       <c r="G22">
-        <v>0.361680705206112</v>
+        <v>0.4792031438083484</v>
       </c>
       <c r="H22">
-        <v>0.009378129828125692</v>
+        <v>0.008883336650938795</v>
       </c>
       <c r="I22">
-        <v>0.003965335915141033</v>
+        <v>0.002853498856491221</v>
       </c>
       <c r="J22">
-        <v>0.271206523686871</v>
+        <v>0.1894827952789626</v>
       </c>
       <c r="K22">
-        <v>0.2455777800097252</v>
+        <v>0.2212714886330769</v>
       </c>
       <c r="L22">
-        <v>0.363690671076256</v>
+        <v>0.1158350085132298</v>
       </c>
       <c r="M22">
-        <v>4.525416447254941</v>
+        <v>0.05669535959700944</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3609598500223683</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>4.33388615370535</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.284854973712299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.213346131493097</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5219258725608142</v>
+        <v>0.5722293630372519</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4444798877838707</v>
+        <v>0.449091743181782</v>
       </c>
       <c r="E23">
-        <v>0.3411720600178612</v>
+        <v>0.3415403128672025</v>
       </c>
       <c r="F23">
-        <v>0.7681739239481686</v>
+        <v>0.7501333513758368</v>
       </c>
       <c r="G23">
-        <v>0.3545017492475608</v>
+        <v>0.438570179448007</v>
       </c>
       <c r="H23">
-        <v>0.008288290101280932</v>
+        <v>0.007893096117076059</v>
       </c>
       <c r="I23">
-        <v>0.004116852644110658</v>
+        <v>0.002821291368860557</v>
       </c>
       <c r="J23">
-        <v>0.2698593745697337</v>
+        <v>0.2148433264796026</v>
       </c>
       <c r="K23">
-        <v>0.247851702885777</v>
+        <v>0.2215421561407016</v>
       </c>
       <c r="L23">
-        <v>0.3521362497643992</v>
+        <v>0.1138285863968473</v>
       </c>
       <c r="M23">
-        <v>4.360502213331245</v>
+        <v>0.05808963056203797</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3501238349923312</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>4.184006107629898</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.266692902140107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.223892989591775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4476152071672175</v>
+        <v>0.4885912637349747</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3871973441696923</v>
+        <v>0.3840561171575132</v>
       </c>
       <c r="E24">
-        <v>0.298124208508618</v>
+        <v>0.2970018867726552</v>
       </c>
       <c r="F24">
-        <v>0.70508022294689</v>
+        <v>0.7158413411770823</v>
       </c>
       <c r="G24">
-        <v>0.3267901953105223</v>
+        <v>0.3337685281177727</v>
       </c>
       <c r="H24">
-        <v>0.00470668574678057</v>
+        <v>0.004573453381365611</v>
       </c>
       <c r="I24">
-        <v>0.005468006073371612</v>
+        <v>0.00350317495009822</v>
       </c>
       <c r="J24">
-        <v>0.2645349905445613</v>
+        <v>0.2957038175676914</v>
       </c>
       <c r="K24">
-        <v>0.2592369319084824</v>
+        <v>0.2270363725116784</v>
       </c>
       <c r="L24">
-        <v>0.3083964908960439</v>
+        <v>0.1091550419236924</v>
       </c>
       <c r="M24">
-        <v>3.758471360025112</v>
+        <v>0.06462757927448592</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3082757567843544</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>3.616720923225444</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.196323479132673</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.225552314124855</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.36641777301557</v>
+        <v>0.4073140161518296</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3257957801474163</v>
+        <v>0.3221701631269127</v>
       </c>
       <c r="E25">
-        <v>0.2519032880070924</v>
+        <v>0.2508562215778127</v>
       </c>
       <c r="F25">
-        <v>0.640283983872699</v>
+        <v>0.6534041703431299</v>
       </c>
       <c r="G25">
-        <v>0.2995646040058659</v>
+        <v>0.2996809200418298</v>
       </c>
       <c r="H25">
-        <v>0.001878861158599143</v>
+        <v>0.001842287793125563</v>
       </c>
       <c r="I25">
-        <v>0.007433319612156986</v>
+        <v>0.00464892480657042</v>
       </c>
       <c r="J25">
-        <v>0.2603685629196164</v>
+        <v>0.2978762789410183</v>
       </c>
       <c r="K25">
-        <v>0.273437788066202</v>
+        <v>0.2376910216690646</v>
       </c>
       <c r="L25">
-        <v>0.2613711562593011</v>
+        <v>0.1076483941863291</v>
       </c>
       <c r="M25">
-        <v>3.112612352247254</v>
+        <v>0.07351475013719622</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2616583075200793</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2.973268627849677</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.129343857338299</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.164020840149163</v>
       </c>
     </row>
   </sheetData>
